--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Bar Centrale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D72B5A5-C326-42CC-894F-08C69F9570C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86883D4-9FF3-4026-83F9-CCCB7F4DBCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="172">
   <si>
     <t>821 BLU</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>MOODS</t>
+  </si>
+  <si>
+    <t>DIANA BLU 100</t>
+  </si>
+  <si>
+    <t>DIANA ROSSA 100</t>
+  </si>
+  <si>
+    <t>CAMEL GIALLO</t>
+  </si>
+  <si>
+    <t>NEO ARCTIC BLUE</t>
+  </si>
+  <si>
+    <t>NEO SCARLET GREEN</t>
+  </si>
+  <si>
+    <t>SIGARETTI</t>
   </si>
 </sst>
 </file>
@@ -548,7 +566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +603,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -613,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,9 +674,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -967,10 +997,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,43 +1012,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2957</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="A1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1047,10 +1070,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>293</v>
+        <v>2956</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1079,10 +1102,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>2286</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1111,10 +1134,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>2286</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1143,10 +1166,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
-        <v>2288</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1175,10 +1198,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1207,10 +1230,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>2883</v>
+        <v>2287</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1239,10 +1262,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
-        <v>96</v>
+        <v>2883</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1271,10 +1294,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1303,10 +1326,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>3113</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1335,10 +1358,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1367,10 +1390,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1">
-        <v>2081</v>
+        <v>3114</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1399,10 +1422,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1431,10 +1454,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>3348</v>
+        <v>2082</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1463,10 +1486,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>2257</v>
+        <v>3348</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1495,10 +1518,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>478</v>
+        <v>2257</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1527,10 +1550,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>3590</v>
+        <v>478</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1559,10 +1582,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1">
-        <v>632</v>
+        <v>3590</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1591,10 +1614,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>546</v>
+        <v>632</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1623,10 +1646,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>3468</v>
+        <v>546</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1655,10 +1678,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
-        <v>264</v>
+        <v>3468</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1687,10 +1710,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1719,10 +1742,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1">
-        <v>2108</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1751,10 +1774,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1">
-        <v>552</v>
+        <v>2108</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1781,12 +1804,12 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>338</v>
+        <v>552</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1815,10 +1838,10 @@
     </row>
     <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B27" s="1">
-        <v>1784</v>
+        <v>338</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1847,10 +1870,10 @@
     </row>
     <row r="28" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1">
-        <v>134</v>
+        <v>1784</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1879,10 +1902,10 @@
     </row>
     <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="1">
         <v>134</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1911,10 +1934,10 @@
     </row>
     <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1">
-        <v>3543</v>
+        <v>1248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1943,10 +1966,10 @@
     </row>
     <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
-        <v>1733</v>
+        <v>3543</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1975,10 +1998,10 @@
     </row>
     <row r="32" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
-        <v>2700</v>
+        <v>1733</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2007,10 +2030,10 @@
     </row>
     <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1">
-        <v>91</v>
+        <v>2700</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2039,10 +2062,10 @@
     </row>
     <row r="34" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1">
-        <v>1783</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2071,10 +2094,10 @@
     </row>
     <row r="35" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1">
-        <v>2296</v>
+        <v>1783</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2101,12 +2124,12 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1">
-        <v>396</v>
+        <v>2296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2133,12 +2156,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2165,12 +2188,12 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1">
-        <v>2214</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2199,10 +2222,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>3504</v>
+        <v>2214</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2229,12 +2252,12 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B40" s="1">
-        <v>2658</v>
+        <v>3504</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2263,10 +2286,10 @@
     </row>
     <row r="41" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1">
-        <v>819</v>
+        <v>2658</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2293,12 +2316,12 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
-        <v>395</v>
+        <v>819</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2327,10 +2350,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1">
-        <v>618</v>
+        <v>395</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2357,12 +2380,12 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2391,10 +2414,10 @@
     </row>
     <row r="45" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1">
-        <v>2373</v>
+        <v>627</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2423,10 +2446,10 @@
     </row>
     <row r="46" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
-        <v>3422</v>
+        <v>2373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2453,12 +2476,12 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>2616</v>
+        <v>3422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2487,10 +2510,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>651</v>
+        <v>2616</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2517,12 +2540,12 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1">
-        <v>9</v>
+        <v>651</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2551,10 +2574,10 @@
     </row>
     <row r="50" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1">
-        <v>993</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2583,10 +2606,10 @@
     </row>
     <row r="51" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1">
-        <v>852</v>
+        <v>993</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2615,10 +2638,10 @@
     </row>
     <row r="52" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
-        <v>177</v>
+        <v>852</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2647,10 +2670,10 @@
     </row>
     <row r="53" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2677,12 +2700,12 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
-        <v>857</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2711,10 +2734,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1">
-        <v>3015</v>
+        <v>857</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2743,10 +2766,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2775,10 +2798,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>2981</v>
+        <v>3016</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2807,10 +2830,10 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1">
-        <v>3118</v>
+        <v>2981</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2839,10 +2862,10 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>3014</v>
+        <v>3118</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2869,12 +2892,12 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
-        <v>2982</v>
+        <v>3014</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2903,10 +2926,10 @@
     </row>
     <row r="61" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1">
-        <v>256</v>
+        <v>2982</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2935,10 +2958,10 @@
     </row>
     <row r="62" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1">
-        <v>949</v>
+        <v>256</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2967,10 +2990,10 @@
     </row>
     <row r="63" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1">
-        <v>874</v>
+        <v>949</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2999,10 +3022,10 @@
     </row>
     <row r="64" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B64" s="1">
-        <v>997</v>
+        <v>874</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3031,10 +3054,10 @@
     </row>
     <row r="65" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B65" s="1">
-        <v>2423</v>
+        <v>997</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3063,10 +3086,10 @@
     </row>
     <row r="66" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1">
-        <v>376</v>
+        <v>2423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3095,10 +3118,10 @@
     </row>
     <row r="67" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1">
-        <v>1634</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3127,10 +3150,10 @@
     </row>
     <row r="68" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
-        <v>81</v>
+        <v>1634</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3159,10 +3182,10 @@
     </row>
     <row r="69" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
-        <v>649</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3189,12 +3212,12 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1">
-        <v>231</v>
+        <v>649</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3223,10 +3246,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1">
-        <v>2217</v>
+        <v>231</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3255,10 +3278,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="1">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3287,10 +3310,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B73" s="1">
-        <v>798</v>
+        <v>2216</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3319,10 +3342,10 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B74" s="1">
-        <v>291</v>
+        <v>798</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3351,10 +3374,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1">
-        <v>3341</v>
+        <v>291</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3381,12 +3404,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B76" s="1">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3415,10 +3438,10 @@
     </row>
     <row r="77" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1">
-        <v>2065</v>
+        <v>3340</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3447,10 +3470,10 @@
     </row>
     <row r="78" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B78" s="1">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3479,10 +3502,10 @@
     </row>
     <row r="79" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1">
-        <v>3467</v>
+        <v>2066</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3509,12 +3532,12 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
-        <v>3221</v>
+        <v>3467</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3541,12 +3564,12 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1">
-        <v>3007</v>
+        <v>3221</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3575,10 +3598,10 @@
     </row>
     <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B82" s="1">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3607,10 +3630,10 @@
     </row>
     <row r="83" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3639,10 +3662,10 @@
     </row>
     <row r="84" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B84" s="1">
-        <v>2654</v>
+        <v>3011</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3671,10 +3694,10 @@
     </row>
     <row r="85" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B85" s="1">
-        <v>2860</v>
+        <v>2654</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3703,10 +3726,10 @@
     </row>
     <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1">
-        <v>3606</v>
+        <v>2860</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3735,10 +3758,10 @@
     </row>
     <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B87" s="1">
-        <v>3009</v>
+        <v>3606</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3767,10 +3790,10 @@
     </row>
     <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1">
-        <v>3059</v>
+        <v>3009</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3799,10 +3822,10 @@
     </row>
     <row r="89" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B89" s="1">
-        <v>3012</v>
+        <v>3059</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3831,10 +3854,10 @@
     </row>
     <row r="90" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1">
-        <v>2878</v>
+        <v>3012</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3863,10 +3886,10 @@
     </row>
     <row r="91" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3895,10 +3918,10 @@
     </row>
     <row r="92" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B92" s="1">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3927,10 +3950,10 @@
     </row>
     <row r="93" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B93" s="1">
-        <v>2652</v>
+        <v>2879</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3957,12 +3980,12 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B94" s="1">
-        <v>2270</v>
+        <v>2652</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3991,10 +4014,10 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B95" s="1">
-        <v>867</v>
+        <v>2270</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4023,10 +4046,10 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B96" s="1">
-        <v>451</v>
+        <v>867</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4053,12 +4076,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="B97" s="1">
-        <v>536</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4087,10 +4110,10 @@
     </row>
     <row r="98" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="B98" s="1">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4119,10 +4142,10 @@
     </row>
     <row r="99" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1">
-        <v>951</v>
+        <v>560</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4151,10 +4174,10 @@
     </row>
     <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B100" s="1">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4181,12 +4204,12 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B101" s="1">
-        <v>876</v>
+        <v>952</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4213,12 +4236,12 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B102" s="1">
-        <v>66</v>
+        <v>876</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4247,10 +4270,10 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" s="1">
-        <v>2771</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4277,12 +4300,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>3104</v>
+        <v>2771</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4311,10 +4334,10 @@
     </row>
     <row r="105" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
-        <v>233</v>
+        <v>3104</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4343,10 +4366,10 @@
     </row>
     <row r="106" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B106" s="1">
-        <v>630</v>
+        <v>233</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4375,10 +4398,10 @@
     </row>
     <row r="107" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="B107" s="1">
-        <v>2694</v>
+        <v>1982</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4407,10 +4430,10 @@
     </row>
     <row r="108" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="B108" s="1">
-        <v>2816</v>
+        <v>630</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4439,10 +4462,10 @@
     </row>
     <row r="109" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="B109" s="1">
-        <v>2695</v>
+        <v>1983</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4471,10 +4494,10 @@
     </row>
     <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1">
-        <v>2602</v>
+        <v>2694</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4503,10 +4526,10 @@
     </row>
     <row r="111" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B111" s="1">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4535,10 +4558,10 @@
     </row>
     <row r="112" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B112" s="1">
-        <v>3220</v>
+        <v>2695</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4567,10 +4590,10 @@
     </row>
     <row r="113" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B113" s="1">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4597,12 +4620,12 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="B114" s="1">
-        <v>3502</v>
+        <v>2815</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4629,12 +4652,12 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="B115" s="1">
-        <v>3500</v>
+        <v>3220</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4661,12 +4684,12 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B116" s="1">
-        <v>3731</v>
+        <v>2603</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4695,10 +4718,10 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B117" s="1">
-        <v>3880</v>
+        <v>3502</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4727,10 +4750,10 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B118" s="1">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4759,10 +4782,10 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B119" s="1">
-        <v>3653</v>
+        <v>3731</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4789,12 +4812,12 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B120" s="1">
-        <v>3707</v>
+        <v>3880</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4821,12 +4844,12 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B121" s="1">
-        <v>3816</v>
+        <v>3501</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4853,12 +4876,12 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B122" s="1">
-        <v>3929</v>
+        <v>3653</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4887,10 +4910,10 @@
     </row>
     <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B123" s="1">
-        <v>3920</v>
+        <v>3707</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4919,10 +4942,10 @@
     </row>
     <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B124" s="1">
-        <v>3921</v>
+        <v>3816</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4951,10 +4974,10 @@
     </row>
     <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B125" s="1">
-        <v>3922</v>
+        <v>3929</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -4983,10 +5006,10 @@
     </row>
     <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B126" s="1">
-        <v>3867</v>
+        <v>3920</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5015,10 +5038,10 @@
     </row>
     <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B127" s="1">
-        <v>3868</v>
+        <v>3921</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5047,10 +5070,10 @@
     </row>
     <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B128" s="1">
-        <v>3871</v>
+        <v>3922</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5079,10 +5102,10 @@
     </row>
     <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B129" s="1">
-        <v>3923</v>
+        <v>3867</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5111,10 +5134,10 @@
     </row>
     <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B130" s="1">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5143,10 +5166,10 @@
     </row>
     <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B131" s="1">
-        <v>3872</v>
+        <v>2950</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5175,10 +5198,10 @@
     </row>
     <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B132" s="1">
-        <v>3915</v>
+        <v>3871</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5207,10 +5230,10 @@
     </row>
     <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B133" s="1">
-        <v>3870</v>
+        <v>3923</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5239,10 +5262,10 @@
     </row>
     <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B134" s="1">
-        <v>3172</v>
+        <v>3949</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5270,29 +5293,29 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7"/>
+      <c r="A135" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3869</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
@@ -5302,29 +5325,29 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="8">
-        <v>3688</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
+      <c r="A136" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3872</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
@@ -5334,29 +5357,29 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B137" s="8">
-        <v>3528</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
+      <c r="A137" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B137" s="1">
+        <v>3915</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
@@ -5366,54 +5389,61 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B138" s="8">
-        <v>3529</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="9"/>
-      <c r="S138" s="9"/>
+      <c r="A138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3870</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="8">
-        <v>3648</v>
-      </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="9"/>
-      <c r="S139" s="9"/>
+      <c r="A139" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3904</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
       <c r="T139" s="3"/>
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
@@ -5423,29 +5453,29 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B140" s="8">
-        <v>3530</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="10"/>
-      <c r="R140" s="10"/>
-      <c r="S140" s="10"/>
+      <c r="A140" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
@@ -5455,29 +5485,29 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
-      <c r="Q141" s="11"/>
-      <c r="R141" s="11"/>
-      <c r="S141" s="11"/>
+      <c r="A141" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B141" s="8">
+        <v>3688</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
@@ -5487,29 +5517,29 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B142" s="1">
-        <v>3495</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
+      <c r="A142" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" s="8">
+        <v>3528</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
@@ -5519,61 +5549,54 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B143" s="1">
-        <v>3494</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="3"/>
-      <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
-      <c r="W143" s="3"/>
-      <c r="X143" s="3"/>
-      <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
+      <c r="A143" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" s="8">
+        <v>3529</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
     </row>
     <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B144" s="1">
-        <v>3452</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
+      <c r="A144" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8">
+        <v>3648</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
@@ -5583,13 +5606,13 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B145" s="1">
-        <v>3520</v>
-      </c>
-      <c r="C145" s="2"/>
+      <c r="A145" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" s="8">
+        <v>3530</v>
+      </c>
+      <c r="C145" s="9"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -5599,13 +5622,13 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+      <c r="O145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
@@ -5615,29 +5638,29 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B146" s="1">
-        <v>3519</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
+      <c r="A146" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
@@ -5648,10 +5671,10 @@
     </row>
     <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B147" s="1">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5680,10 +5703,10 @@
     </row>
     <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B148" s="1">
-        <v>3498</v>
+        <v>3494</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5712,10 +5735,10 @@
     </row>
     <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B149" s="1">
-        <v>3497</v>
+        <v>3452</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5744,10 +5767,10 @@
     </row>
     <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B150" s="1">
-        <v>3499</v>
+        <v>3520</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5776,10 +5799,10 @@
     </row>
     <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B151" s="1">
-        <v>3487</v>
+        <v>3519</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5808,10 +5831,10 @@
     </row>
     <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B152" s="1">
-        <v>3486</v>
+        <v>3493</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5840,10 +5863,10 @@
     </row>
     <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B153" s="1">
-        <v>3456</v>
+        <v>3498</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5872,10 +5895,10 @@
     </row>
     <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B154" s="1">
-        <v>3455</v>
+        <v>3497</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5904,10 +5927,10 @@
     </row>
     <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B155" s="1">
-        <v>3454</v>
+        <v>3499</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5936,10 +5959,10 @@
     </row>
     <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B156" s="1">
-        <v>3458</v>
+        <v>3487</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5967,29 +5990,29 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B157" s="12">
-        <v>3459</v>
-      </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="13"/>
-      <c r="O157" s="13"/>
-      <c r="P157" s="13"/>
-      <c r="Q157" s="13"/>
-      <c r="R157" s="13"/>
-      <c r="S157" s="13"/>
+      <c r="A157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3486</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
       <c r="T157" s="3"/>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
@@ -6000,10 +6023,10 @@
     </row>
     <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B158" s="1">
-        <v>3658</v>
+        <v>3456</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6032,10 +6055,10 @@
     </row>
     <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B159" s="1">
-        <v>1963</v>
+        <v>3455</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6064,10 +6087,10 @@
     </row>
     <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="B160" s="1">
-        <v>3450</v>
+        <v>3454</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6096,10 +6119,10 @@
     </row>
     <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="B161" s="1">
-        <v>3448</v>
+        <v>3457</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6128,10 +6151,10 @@
     </row>
     <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B162" s="1">
-        <v>400</v>
+        <v>3458</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6159,29 +6182,29 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B163" s="1">
-        <v>1927</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
+      <c r="A163" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163" s="12">
+        <v>3459</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
+      <c r="M163" s="13"/>
+      <c r="N163" s="13"/>
+      <c r="O163" s="13"/>
+      <c r="P163" s="13"/>
+      <c r="Q163" s="13"/>
+      <c r="R163" s="13"/>
+      <c r="S163" s="13"/>
       <c r="T163" s="3"/>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
@@ -6192,10 +6215,10 @@
     </row>
     <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B164" s="1">
-        <v>3461</v>
+        <v>3658</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6222,12 +6245,12 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B165" s="1">
-        <v>1616</v>
+        <v>1963</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6246,13 +6269,20 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+    </row>
+    <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B166" s="1">
-        <v>1267</v>
+        <v>3450</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6271,6 +6301,191 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+    </row>
+    <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3448</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" s="1">
+        <v>400</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+    </row>
+    <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1927</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+    </row>
+    <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B170" s="1">
+        <v>3461</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+    </row>
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+    </row>
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1267</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86883D4-9FF3-4026-83F9-CCCB7F4DBCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B917817C-3BC7-4916-A1CE-53938C182160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
   <si>
     <t>821 BLU</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>SIGARETTI</t>
+  </si>
+  <si>
+    <t>HEETS SILVER</t>
+  </si>
+  <si>
+    <t>CAMEL BLONDE</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1003,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5006,10 +5012,10 @@
     </row>
     <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B126" s="1">
-        <v>3920</v>
+        <v>3970</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5038,10 +5044,10 @@
     </row>
     <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" s="1">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5070,10 +5076,10 @@
     </row>
     <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="1">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5102,10 +5108,10 @@
     </row>
     <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B129" s="1">
-        <v>3867</v>
+        <v>3922</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5134,10 +5140,10 @@
     </row>
     <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130" s="1">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5166,10 +5172,10 @@
     </row>
     <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B131" s="1">
-        <v>2950</v>
+        <v>3868</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5198,10 +5204,10 @@
     </row>
     <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B132" s="1">
-        <v>3871</v>
+        <v>3950</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5230,10 +5236,10 @@
     </row>
     <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B133" s="1">
-        <v>3923</v>
+        <v>3871</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5262,10 +5268,10 @@
     </row>
     <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B134" s="1">
-        <v>3949</v>
+        <v>3923</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5294,10 +5300,10 @@
     </row>
     <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B135" s="1">
-        <v>3869</v>
+        <v>3949</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5326,10 +5332,10 @@
     </row>
     <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B136" s="1">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5358,10 +5364,10 @@
     </row>
     <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B137" s="1">
-        <v>3915</v>
+        <v>3872</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5390,10 +5396,10 @@
     </row>
     <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B138" s="1">
-        <v>3870</v>
+        <v>3915</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5422,10 +5428,10 @@
     </row>
     <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B139" s="1">
-        <v>3904</v>
+        <v>3870</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5453,29 +5459,29 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="7"/>
-      <c r="R140" s="7"/>
-      <c r="S140" s="7"/>
+      <c r="A140" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3904</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
@@ -5485,29 +5491,29 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B141" s="8">
-        <v>3688</v>
-      </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
+      <c r="A141" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="7"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
@@ -5518,10 +5524,10 @@
     </row>
     <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B142" s="8">
-        <v>3528</v>
+        <v>3688</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -5550,10 +5556,10 @@
     </row>
     <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B143" s="8">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -5572,13 +5578,20 @@
       <c r="Q143" s="9"/>
       <c r="R143" s="9"/>
       <c r="S143" s="9"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B144" s="8">
-        <v>3648</v>
+        <v>3529</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -5597,38 +5610,31 @@
       <c r="Q144" s="9"/>
       <c r="R144" s="9"/>
       <c r="S144" s="9"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8">
-        <v>3530</v>
+        <v>3648</v>
       </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-      <c r="R145" s="10"/>
-      <c r="S145" s="10"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
@@ -5638,29 +5644,29 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
-      <c r="Q146" s="11"/>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
+      <c r="A146" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" s="8">
+        <v>3530</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+      <c r="O146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
@@ -5670,29 +5676,29 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B147" s="1">
-        <v>3495</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
+      <c r="A147" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
@@ -5703,10 +5709,10 @@
     </row>
     <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" s="1">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5735,10 +5741,10 @@
     </row>
     <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B149" s="1">
-        <v>3452</v>
+        <v>3494</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5767,10 +5773,10 @@
     </row>
     <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B150" s="1">
-        <v>3520</v>
+        <v>3452</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5799,10 +5805,10 @@
     </row>
     <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B151" s="1">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5831,10 +5837,10 @@
     </row>
     <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B152" s="1">
-        <v>3493</v>
+        <v>3519</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5863,10 +5869,10 @@
     </row>
     <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B153" s="1">
-        <v>3498</v>
+        <v>3493</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5895,10 +5901,10 @@
     </row>
     <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B154" s="1">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5927,10 +5933,10 @@
     </row>
     <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B155" s="1">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5959,10 +5965,10 @@
     </row>
     <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B156" s="1">
-        <v>3487</v>
+        <v>3499</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5991,10 +5997,10 @@
     </row>
     <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B157" s="1">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6023,10 +6029,10 @@
     </row>
     <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B158" s="1">
-        <v>3456</v>
+        <v>3486</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6055,10 +6061,10 @@
     </row>
     <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B159" s="1">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6087,10 +6093,10 @@
     </row>
     <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B160" s="1">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6119,10 +6125,10 @@
     </row>
     <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B161" s="1">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6151,10 +6157,10 @@
     </row>
     <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="B162" s="1">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6182,29 +6188,29 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A163" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B163" s="12">
-        <v>3459</v>
-      </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="13"/>
-      <c r="M163" s="13"/>
-      <c r="N163" s="13"/>
-      <c r="O163" s="13"/>
-      <c r="P163" s="13"/>
-      <c r="Q163" s="13"/>
-      <c r="R163" s="13"/>
-      <c r="S163" s="13"/>
+      <c r="A163" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3605</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
       <c r="T163" s="3"/>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
@@ -6215,10 +6221,10 @@
     </row>
     <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B164" s="1">
-        <v>3658</v>
+        <v>3458</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6246,29 +6252,29 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B165" s="1">
-        <v>1963</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
+      <c r="A165" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B165" s="12">
+        <v>3459</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="13"/>
+      <c r="M165" s="13"/>
+      <c r="N165" s="13"/>
+      <c r="O165" s="13"/>
+      <c r="P165" s="13"/>
+      <c r="Q165" s="13"/>
+      <c r="R165" s="13"/>
+      <c r="S165" s="13"/>
       <c r="T165" s="3"/>
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
@@ -6279,10 +6285,10 @@
     </row>
     <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B166" s="1">
-        <v>3450</v>
+        <v>3658</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6311,10 +6317,10 @@
     </row>
     <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B167" s="1">
-        <v>3448</v>
+        <v>1963</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6343,10 +6349,10 @@
     </row>
     <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B168" s="1">
-        <v>400</v>
+        <v>3450</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6375,10 +6381,10 @@
     </row>
     <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B169" s="1">
-        <v>1927</v>
+        <v>3448</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6407,10 +6413,10 @@
     </row>
     <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B170" s="1">
-        <v>3461</v>
+        <v>400</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6437,12 +6443,12 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B171" s="1">
-        <v>1616</v>
+        <v>1927</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6461,13 +6467,20 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+    </row>
+    <row r="172" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B172" s="1">
-        <v>1267</v>
+        <v>3461</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6486,9 +6499,66 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+      <c r="Z172" s="3"/>
+    </row>
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+    </row>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1267</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B917817C-3BC7-4916-A1CE-53938C182160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2160BC0-D8E3-4AEC-A6FF-5548DB6906F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>821 BLU</t>
   </si>
@@ -70,21 +70,12 @@
     <t>CHESTER BLU DURO</t>
   </si>
   <si>
-    <t>CHESTER BLU MORBIDO</t>
-  </si>
-  <si>
-    <t>CHESTER MENTA DOPPIO</t>
-  </si>
-  <si>
     <t>CHESTER ROSSO 100</t>
   </si>
   <si>
     <t>CHESTER ROSSO DURO</t>
   </si>
   <si>
-    <t>CHESTER ROSSO MORBIDO</t>
-  </si>
-  <si>
     <t>CHESTER SILVER</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>Lucky Strike ROSSO</t>
   </si>
   <si>
-    <t>MARLBORO BLU SLIM</t>
-  </si>
-  <si>
     <t>Marlboro GOLD 100'S</t>
   </si>
   <si>
@@ -205,12 +193,6 @@
     <t>MS Club MARRONE SLIM</t>
   </si>
   <si>
-    <t>MS ROSSO DURO</t>
-  </si>
-  <si>
-    <t>MS ROSSO MORBIDO</t>
-  </si>
-  <si>
     <t>MURATTI BLU</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>PHILIP MORRIS AZZURRO</t>
   </si>
   <si>
-    <t>PHILIP MORRIS AZZURRO 100</t>
-  </si>
-  <si>
     <t>PHILIP MORRIS BIANCO</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t xml:space="preserve">PHILIP MORRIS BLU morbido </t>
   </si>
   <si>
-    <t>PHILIP MORRIS BLU SLIM</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHILIP MORRIS ROSSO </t>
   </si>
   <si>
@@ -253,18 +229,12 @@
     <t>Rothmans BLU 100</t>
   </si>
   <si>
-    <t>Rothmans BLU MORBIDO</t>
-  </si>
-  <si>
     <t>Rothmans BLU SLIM</t>
   </si>
   <si>
     <t>Rothmans Pocket DEMI</t>
   </si>
   <si>
-    <t>Rothmans R BLU</t>
-  </si>
-  <si>
     <t>Rothmans ROSSO</t>
   </si>
   <si>
@@ -274,9 +244,6 @@
     <t>Rothmans SILVER 100</t>
   </si>
   <si>
-    <t>Rothmans SILVER MORBIDO</t>
-  </si>
-  <si>
     <t>Rothmans SILVER SLIM</t>
   </si>
   <si>
@@ -310,9 +277,6 @@
     <t>Winston SILVER SLIM</t>
   </si>
   <si>
-    <t>Winston XS Blu</t>
-  </si>
-  <si>
     <t>SIGARETTE</t>
   </si>
   <si>
@@ -349,9 +313,6 @@
     <t>JPS BLU</t>
   </si>
   <si>
-    <t>PHILIP MORRIS BLU</t>
-  </si>
-  <si>
     <t>CHESTERFIELD BLU</t>
   </si>
   <si>
@@ -418,9 +379,6 @@
     <t>Camel GIALLO MORBIDO</t>
   </si>
   <si>
-    <t>Camel BIANCO</t>
-  </si>
-  <si>
     <t>Winston BLU</t>
   </si>
   <si>
@@ -542,6 +500,9 @@
   </si>
   <si>
     <t>CAMEL BLONDE</t>
+  </si>
+  <si>
+    <t>HEETS MAUVE WAVE</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +964,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z174"/>
+  <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1019,10 +980,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1044,7 +1005,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>2957</v>
@@ -1076,7 +1037,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2956</v>
@@ -1108,7 +1069,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>293</v>
@@ -1140,7 +1101,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>2286</v>
@@ -1172,7 +1133,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>300</v>
@@ -1204,7 +1165,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>2288</v>
@@ -1236,7 +1197,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>2287</v>
@@ -1268,7 +1229,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>2883</v>
@@ -1300,7 +1261,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>96</v>
@@ -1364,7 +1325,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>3113</v>
@@ -1396,7 +1357,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1">
         <v>3114</v>
@@ -1428,10 +1389,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>2081</v>
+        <v>2257</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1460,10 +1421,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>2082</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1492,10 +1453,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1">
-        <v>3348</v>
+        <v>3590</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1524,10 +1485,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>2257</v>
+        <v>632</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1556,10 +1517,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1588,10 +1549,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>3590</v>
+        <v>3468</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1620,10 +1581,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>632</v>
+        <v>264</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1652,10 +1613,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1">
-        <v>546</v>
+        <v>270</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1684,10 +1645,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>3468</v>
+        <v>552</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1714,12 +1675,12 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B23" s="1">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1746,12 +1707,12 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
-        <v>270</v>
+        <v>1784</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1778,12 +1739,12 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>2108</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1810,12 +1771,12 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1">
-        <v>552</v>
+        <v>1248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1844,10 +1805,10 @@
     </row>
     <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
-        <v>338</v>
+        <v>3543</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1876,10 +1837,10 @@
     </row>
     <row r="28" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1">
-        <v>1784</v>
+        <v>1733</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1908,10 +1869,10 @@
     </row>
     <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1940,10 +1901,10 @@
     </row>
     <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1">
-        <v>1248</v>
+        <v>1783</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1972,10 +1933,10 @@
     </row>
     <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1">
-        <v>3543</v>
+        <v>2296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2002,12 +1963,12 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>1733</v>
+        <v>396</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2036,10 +1997,10 @@
     </row>
     <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1">
-        <v>2700</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2066,12 +2027,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
-        <v>91</v>
+        <v>2214</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2098,12 +2059,12 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1">
-        <v>1783</v>
+        <v>3504</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2132,10 +2093,10 @@
     </row>
     <row r="36" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>2296</v>
+        <v>2658</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2162,12 +2123,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>396</v>
+        <v>819</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2194,12 +2155,12 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1">
-        <v>259</v>
+        <v>395</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2228,10 +2189,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>2214</v>
+        <v>618</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2258,12 +2219,12 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1">
-        <v>3504</v>
+        <v>627</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2292,10 +2253,10 @@
     </row>
     <row r="41" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
-        <v>2658</v>
+        <v>2373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2327,7 +2288,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="1">
-        <v>819</v>
+        <v>3422</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2356,10 +2317,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>395</v>
+        <v>2616</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2388,10 +2349,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2420,10 +2381,10 @@
     </row>
     <row r="45" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1">
-        <v>627</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2452,10 +2413,10 @@
     </row>
     <row r="46" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>2373</v>
+        <v>177</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2484,10 +2445,10 @@
     </row>
     <row r="47" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>3422</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2516,10 +2477,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
-        <v>2616</v>
+        <v>857</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2548,10 +2509,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>651</v>
+        <v>3015</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2578,12 +2539,12 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1">
-        <v>9</v>
+        <v>3016</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2610,12 +2571,12 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>993</v>
+        <v>2981</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2642,12 +2603,12 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>852</v>
+        <v>3118</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2674,12 +2635,12 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
-        <v>177</v>
+        <v>3014</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2708,10 +2669,10 @@
     </row>
     <row r="54" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1">
-        <v>176</v>
+        <v>2982</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2738,12 +2699,12 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1">
-        <v>857</v>
+        <v>256</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2770,12 +2731,12 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1">
-        <v>3015</v>
+        <v>949</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2802,12 +2763,12 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1">
-        <v>3016</v>
+        <v>874</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2834,12 +2795,12 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1">
-        <v>2981</v>
+        <v>997</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2866,12 +2827,12 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
-        <v>3118</v>
+        <v>2423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2898,12 +2859,12 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1">
-        <v>3014</v>
+        <v>376</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2932,10 +2893,10 @@
     </row>
     <row r="61" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1">
-        <v>2982</v>
+        <v>1634</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2964,10 +2925,10 @@
     </row>
     <row r="62" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="1">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2996,10 +2957,10 @@
     </row>
     <row r="63" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
-        <v>949</v>
+        <v>649</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3026,12 +2987,12 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1">
-        <v>874</v>
+        <v>231</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3058,12 +3019,12 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B65" s="1">
-        <v>997</v>
+        <v>2217</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3090,12 +3051,12 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1">
-        <v>2423</v>
+        <v>2216</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3122,12 +3083,12 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="B67" s="1">
-        <v>376</v>
+        <v>798</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3154,12 +3115,12 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1">
-        <v>1634</v>
+        <v>291</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3188,10 +3149,10 @@
     </row>
     <row r="69" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B69" s="1">
-        <v>81</v>
+        <v>3340</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3220,10 +3181,10 @@
     </row>
     <row r="70" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1">
-        <v>649</v>
+        <v>2065</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3250,12 +3211,12 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1">
-        <v>231</v>
+        <v>2066</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3282,12 +3243,12 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1">
-        <v>2217</v>
+        <v>3467</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3314,12 +3275,12 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B73" s="1">
-        <v>2216</v>
+        <v>3007</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3346,12 +3307,12 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1">
-        <v>798</v>
+        <v>3010</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3378,12 +3339,12 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>291</v>
+        <v>3011</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3410,12 +3371,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1">
-        <v>3341</v>
+        <v>2654</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3444,10 +3405,10 @@
     </row>
     <row r="77" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1">
-        <v>3340</v>
+        <v>2860</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3476,10 +3437,10 @@
     </row>
     <row r="78" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1">
-        <v>2065</v>
+        <v>3012</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3508,10 +3469,10 @@
     </row>
     <row r="79" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1">
-        <v>2066</v>
+        <v>2878</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3540,10 +3501,10 @@
     </row>
     <row r="80" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
-        <v>3467</v>
+        <v>2880</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3570,12 +3531,12 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1">
-        <v>3221</v>
+        <v>2879</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3604,10 +3565,10 @@
     </row>
     <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1">
-        <v>3007</v>
+        <v>2652</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3634,12 +3595,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1">
-        <v>3010</v>
+        <v>2270</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3666,12 +3627,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B84" s="1">
-        <v>3011</v>
+        <v>867</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3698,12 +3659,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="B85" s="1">
-        <v>2654</v>
+        <v>451</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3732,10 +3693,10 @@
     </row>
     <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1">
-        <v>2860</v>
+        <v>536</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3764,10 +3725,10 @@
     </row>
     <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1">
-        <v>3606</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3796,10 +3757,10 @@
     </row>
     <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B88" s="1">
-        <v>3009</v>
+        <v>951</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3828,10 +3789,10 @@
     </row>
     <row r="89" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1">
-        <v>3059</v>
+        <v>952</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3858,12 +3819,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B90" s="1">
-        <v>3012</v>
+        <v>876</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3890,12 +3851,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1">
-        <v>2878</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3922,12 +3883,12 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>2880</v>
+        <v>2771</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3956,10 +3917,10 @@
     </row>
     <row r="93" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
-        <v>2879</v>
+        <v>3104</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3988,10 +3949,10 @@
     </row>
     <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B94" s="1">
-        <v>2652</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4018,12 +3979,12 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B95" s="1">
-        <v>2270</v>
+        <v>1982</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4050,12 +4011,12 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B96" s="1">
-        <v>867</v>
+        <v>630</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4082,12 +4043,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B97" s="1">
-        <v>451</v>
+        <v>1983</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4116,10 +4077,10 @@
     </row>
     <row r="98" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B98" s="1">
-        <v>536</v>
+        <v>2694</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4148,10 +4109,10 @@
     </row>
     <row r="99" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1">
-        <v>560</v>
+        <v>2695</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4180,10 +4141,10 @@
     </row>
     <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100" s="1">
-        <v>951</v>
+        <v>2602</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4212,10 +4173,10 @@
     </row>
     <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B101" s="1">
-        <v>952</v>
+        <v>2815</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4242,12 +4203,12 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="1">
-        <v>876</v>
+        <v>3220</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4274,12 +4235,12 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B103" s="1">
-        <v>66</v>
+        <v>2603</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4308,10 +4269,10 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B104" s="1">
-        <v>2771</v>
+        <v>3502</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4338,12 +4299,12 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1">
-        <v>3104</v>
+        <v>3500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4370,12 +4331,12 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B106" s="1">
-        <v>233</v>
+        <v>3731</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4402,12 +4363,12 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B107" s="1">
-        <v>1982</v>
+        <v>3880</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4434,12 +4395,12 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1">
-        <v>630</v>
+        <v>3501</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4466,12 +4427,12 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B109" s="1">
-        <v>1983</v>
+        <v>3653</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4500,10 +4461,10 @@
     </row>
     <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1">
-        <v>2694</v>
+        <v>3707</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4532,10 +4493,10 @@
     </row>
     <row r="111" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B111" s="1">
-        <v>2816</v>
+        <v>3816</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4564,10 +4525,10 @@
     </row>
     <row r="112" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1">
-        <v>2695</v>
+        <v>3929</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4596,10 +4557,10 @@
     </row>
     <row r="113" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="B113" s="1">
-        <v>2602</v>
+        <v>3970</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4628,10 +4589,10 @@
     </row>
     <row r="114" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="B114" s="1">
-        <v>2815</v>
+        <v>20076</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4660,10 +4621,10 @@
     </row>
     <row r="115" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1">
-        <v>3220</v>
+        <v>3920</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4692,10 +4653,10 @@
     </row>
     <row r="116" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B116" s="1">
-        <v>2603</v>
+        <v>3921</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4722,12 +4683,12 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B117" s="1">
-        <v>3502</v>
+        <v>3922</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4754,12 +4715,12 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B118" s="1">
-        <v>3500</v>
+        <v>3867</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4786,12 +4747,12 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B119" s="1">
-        <v>3731</v>
+        <v>3868</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4818,12 +4779,12 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B120" s="1">
-        <v>3880</v>
+        <v>3950</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4850,12 +4811,12 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B121" s="1">
-        <v>3501</v>
+        <v>3871</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4882,12 +4843,12 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B122" s="1">
-        <v>3653</v>
+        <v>3923</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4916,10 +4877,10 @@
     </row>
     <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B123" s="1">
-        <v>3707</v>
+        <v>3949</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4948,10 +4909,10 @@
     </row>
     <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" s="1">
-        <v>3816</v>
+        <v>3869</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4980,10 +4941,10 @@
     </row>
     <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B125" s="1">
-        <v>3929</v>
+        <v>3872</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5012,10 +4973,10 @@
     </row>
     <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B126" s="1">
-        <v>3970</v>
+        <v>3915</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5044,10 +5005,10 @@
     </row>
     <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B127" s="1">
-        <v>3920</v>
+        <v>3870</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5076,10 +5037,10 @@
     </row>
     <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128" s="1">
-        <v>3921</v>
+        <v>3904</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5107,29 +5068,29 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129" s="1">
-        <v>3922</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
+      <c r="A129" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="7"/>
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
@@ -5139,29 +5100,29 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B130" s="1">
-        <v>3867</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
+      <c r="A130" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="8">
+        <v>3688</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
@@ -5171,29 +5132,29 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" s="1">
-        <v>3868</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
+      <c r="A131" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" s="8">
+        <v>3528</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
@@ -5203,61 +5164,54 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132" s="1">
-        <v>3950</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="3"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
+      <c r="A132" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" s="8">
+        <v>3529</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
     </row>
     <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B133" s="1">
-        <v>3871</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
+      <c r="A133" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="8">
+        <v>3648</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
@@ -5267,13 +5221,13 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B134" s="1">
-        <v>3923</v>
-      </c>
-      <c r="C134" s="2"/>
+      <c r="A134" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B134" s="8">
+        <v>3530</v>
+      </c>
+      <c r="C134" s="9"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -5283,13 +5237,13 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
@@ -5299,29 +5253,29 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B135" s="1">
-        <v>3949</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
+      <c r="A135" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
@@ -5332,10 +5286,10 @@
     </row>
     <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="B136" s="1">
-        <v>3869</v>
+        <v>3495</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5364,10 +5318,10 @@
     </row>
     <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="B137" s="1">
-        <v>3872</v>
+        <v>3494</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5396,10 +5350,10 @@
     </row>
     <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="B138" s="1">
-        <v>3915</v>
+        <v>3452</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5428,10 +5382,10 @@
     </row>
     <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="B139" s="1">
-        <v>3870</v>
+        <v>3520</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5460,10 +5414,10 @@
     </row>
     <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="B140" s="1">
-        <v>3904</v>
+        <v>3519</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5491,29 +5445,29 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-      <c r="S141" s="7"/>
+      <c r="A141" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3498</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
@@ -5523,29 +5477,29 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B142" s="8">
-        <v>3688</v>
-      </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
+      <c r="A142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142" s="1">
+        <v>3497</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
@@ -5555,29 +5509,29 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B143" s="8">
-        <v>3528</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
+      <c r="A143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3499</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
@@ -5587,54 +5541,61 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" s="1">
+        <v>3487</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B144" s="8">
-        <v>3529</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-    </row>
-    <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="8">
-        <v>3648</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
+      <c r="B145" s="1">
+        <v>3486</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
@@ -5644,13 +5605,13 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B146" s="8">
-        <v>3530</v>
-      </c>
-      <c r="C146" s="9"/>
+      <c r="B146" s="1">
+        <v>3456</v>
+      </c>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -5660,13 +5621,13 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
@@ -5676,29 +5637,29 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
+      <c r="B147" s="1">
+        <v>3455</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
@@ -5709,10 +5670,10 @@
     </row>
     <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B148" s="1">
-        <v>3495</v>
+        <v>3454</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5741,10 +5702,10 @@
     </row>
     <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B149" s="1">
-        <v>3494</v>
+        <v>3457</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5773,10 +5734,10 @@
     </row>
     <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="B150" s="1">
-        <v>3452</v>
+        <v>3605</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5805,10 +5766,10 @@
     </row>
     <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B151" s="1">
-        <v>3520</v>
+        <v>3458</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5836,29 +5797,29 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B152" s="1">
-        <v>3519</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
+      <c r="A152" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152" s="12">
+        <v>3459</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
+      <c r="O152" s="13"/>
+      <c r="P152" s="13"/>
+      <c r="Q152" s="13"/>
+      <c r="R152" s="13"/>
+      <c r="S152" s="13"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
@@ -5869,10 +5830,10 @@
     </row>
     <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B153" s="1">
-        <v>3493</v>
+        <v>3658</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5901,10 +5862,10 @@
     </row>
     <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B154" s="1">
-        <v>3498</v>
+        <v>1963</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5933,10 +5894,10 @@
     </row>
     <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B155" s="1">
-        <v>3497</v>
+        <v>3450</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5965,10 +5926,10 @@
     </row>
     <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B156" s="1">
-        <v>3499</v>
+        <v>3448</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5997,10 +5958,10 @@
     </row>
     <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B157" s="1">
-        <v>3487</v>
+        <v>400</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6029,10 +5990,10 @@
     </row>
     <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B158" s="1">
-        <v>3486</v>
+        <v>1927</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6061,10 +6022,10 @@
     </row>
     <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B159" s="1">
-        <v>3456</v>
+        <v>3461</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6091,12 +6052,12 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B160" s="1">
-        <v>3455</v>
+        <v>1616</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6115,20 +6076,13 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
-      <c r="T160" s="3"/>
-      <c r="U160" s="3"/>
-      <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-      <c r="X160" s="3"/>
-      <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
-    </row>
-    <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B161" s="1">
-        <v>3454</v>
+        <v>1267</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6147,415 +6101,6 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
-      <c r="T161" s="3"/>
-      <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
-      <c r="W161" s="3"/>
-      <c r="X161" s="3"/>
-      <c r="Y161" s="3"/>
-      <c r="Z161" s="3"/>
-    </row>
-    <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B162" s="1">
-        <v>3457</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
-    </row>
-    <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B163" s="1">
-        <v>3605</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-    </row>
-    <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B164" s="1">
-        <v>3458</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-    </row>
-    <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A165" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B165" s="12">
-        <v>3459</v>
-      </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="13"/>
-      <c r="M165" s="13"/>
-      <c r="N165" s="13"/>
-      <c r="O165" s="13"/>
-      <c r="P165" s="13"/>
-      <c r="Q165" s="13"/>
-      <c r="R165" s="13"/>
-      <c r="S165" s="13"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-    </row>
-    <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B166" s="1">
-        <v>3658</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-    </row>
-    <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B167" s="1">
-        <v>1963</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="3"/>
-      <c r="U167" s="3"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-    </row>
-    <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B168" s="1">
-        <v>3450</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="3"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-    </row>
-    <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B169" s="1">
-        <v>3448</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-    </row>
-    <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B170" s="1">
-        <v>400</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-    </row>
-    <row r="171" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B171" s="1">
-        <v>1927</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-    </row>
-    <row r="172" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B172" s="1">
-        <v>3461</v>
-      </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="3"/>
-      <c r="U172" s="3"/>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B173" s="1">
-        <v>1616</v>
-      </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B174" s="1">
-        <v>1267</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2160BC0-D8E3-4AEC-A6FF-5548DB6906F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A7B778-427D-482D-B8A6-C6639C873148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,9 +262,6 @@
     <t>Winston BLU SLIM</t>
   </si>
   <si>
-    <t>Winston Doppio Menta</t>
-  </si>
-  <si>
     <t>Winston ROSSO 100</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>HEETS MAUVE WAVE</t>
+  </si>
+  <si>
+    <t>Winston EXPAND</t>
   </si>
 </sst>
 </file>
@@ -966,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -980,10 +980,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1">
         <v>3114</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1">
         <v>3590</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1">
         <v>270</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="23" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1">
         <v>338</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="25" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1">
         <v>134</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="26" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1">
         <v>1248</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B27" s="1">
-        <v>3543</v>
+        <v>20226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1">
         <v>91</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1">
         <v>1783</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1">
         <v>2296</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1">
         <v>259</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1">
         <v>3504</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1">
         <v>376</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="71" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1">
         <v>2066</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1">
         <v>2654</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1">
         <v>2652</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="1">
         <v>867</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
         <v>536</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="1">
         <v>233</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" s="1">
         <v>1982</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="1">
         <v>630</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="97" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B97" s="1">
         <v>1983</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B104" s="1">
         <v>3502</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="1">
         <v>3500</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="1">
         <v>3731</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="1">
         <v>3880</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="1">
         <v>3501</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" s="1">
         <v>3653</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110" s="1">
         <v>3707</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="111" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B111" s="1">
         <v>3816</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="112" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="1">
         <v>3929</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="113" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B113" s="1">
         <v>3970</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="114" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="1">
         <v>20076</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="115" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="1">
         <v>3920</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="116" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="1">
         <v>3921</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" s="1">
         <v>3922</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" s="1">
         <v>3867</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="1">
         <v>3868</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" s="1">
         <v>3950</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B121" s="1">
         <v>3871</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B122" s="1">
         <v>3923</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="1">
         <v>3949</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="1">
         <v>3869</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B125" s="1">
         <v>3872</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B126" s="1">
         <v>3915</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127" s="1">
         <v>3870</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128" s="1">
         <v>3904</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B130" s="8">
         <v>3688</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B131" s="8">
         <v>3528</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B132" s="8">
         <v>3529</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B133" s="8">
         <v>3648</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B134" s="8">
         <v>3530</v>
@@ -5254,10 +5254,10 @@
     </row>
     <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="11"/>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B136" s="1">
         <v>3495</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="1">
         <v>3494</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B138" s="1">
         <v>3452</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B139" s="1">
         <v>3520</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" s="1">
         <v>3519</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B141" s="1">
         <v>3498</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B142" s="1">
         <v>3497</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="1">
         <v>3499</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" s="1">
         <v>3487</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B145" s="1">
         <v>3486</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B146" s="1">
         <v>3456</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B147" s="1">
         <v>3455</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="1">
         <v>3454</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" s="1">
         <v>3457</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150" s="1">
         <v>3605</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B151" s="1">
         <v>3458</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B152" s="12">
         <v>3459</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B153" s="1">
         <v>3658</v>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B154" s="1">
         <v>1963</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B155" s="1">
         <v>3450</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B156" s="1">
         <v>3448</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B157" s="1">
         <v>400</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B158" s="1">
         <v>1927</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B159" s="1">
         <v>3461</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B160" s="1">
         <v>1616</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="161" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B161" s="1">
         <v>1267</v>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A7B778-427D-482D-B8A6-C6639C873148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA15BAA-9F27-4853-A8D3-82381E226047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,7 +615,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,7 +967,7 @@
   <dimension ref="A1:Z161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>3468</v>
+        <v>20225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA15BAA-9F27-4853-A8D3-82381E226047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C81A17-2F4B-4602-ABCB-AA3E2CCF575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
   <si>
     <t>821 BLU</t>
   </si>
@@ -503,6 +503,69 @@
   </si>
   <si>
     <t>Winston EXPAND</t>
+  </si>
+  <si>
+    <t>NEO MORNING</t>
+  </si>
+  <si>
+    <t>NEO TWILIGHT</t>
+  </si>
+  <si>
+    <t>Lucky Strike Compact</t>
+  </si>
+  <si>
+    <t>RELX CLASSIC TOBACCO</t>
+  </si>
+  <si>
+    <t>RELX GOLDEN TOBACCO</t>
+  </si>
+  <si>
+    <t>RELX MENTOLO</t>
+  </si>
+  <si>
+    <t>RELX ANGURIA</t>
+  </si>
+  <si>
+    <t>RELX COLA</t>
+  </si>
+  <si>
+    <t>RELX LAMPONE</t>
+  </si>
+  <si>
+    <t>RELX UVA</t>
+  </si>
+  <si>
+    <t>RELX BACCHE ASIATICHE</t>
+  </si>
+  <si>
+    <t>RELX ANANAS</t>
+  </si>
+  <si>
+    <t>C8502</t>
+  </si>
+  <si>
+    <t>C8503</t>
+  </si>
+  <si>
+    <t>C8750</t>
+  </si>
+  <si>
+    <t>C8507</t>
+  </si>
+  <si>
+    <t>C8505</t>
+  </si>
+  <si>
+    <t>C8506</t>
+  </si>
+  <si>
+    <t>C8508</t>
+  </si>
+  <si>
+    <t>C8504</t>
+  </si>
+  <si>
+    <t>C8947</t>
   </si>
 </sst>
 </file>
@@ -964,10 +1027,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z161"/>
+  <dimension ref="A1:Z174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3725,10 +3788,10 @@
     </row>
     <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="B87" s="1">
-        <v>560</v>
+        <v>3924</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3757,10 +3820,10 @@
     </row>
     <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="1">
-        <v>951</v>
+        <v>560</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3789,10 +3852,10 @@
     </row>
     <row r="89" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" s="1">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3819,12 +3882,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1">
-        <v>876</v>
+        <v>952</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3851,12 +3914,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B91" s="1">
-        <v>66</v>
+        <v>876</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3885,10 +3948,10 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" s="1">
-        <v>2771</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3915,12 +3978,12 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>3104</v>
+        <v>2771</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3949,10 +4012,10 @@
     </row>
     <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
-        <v>233</v>
+        <v>3104</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3981,10 +4044,10 @@
     </row>
     <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1">
-        <v>1982</v>
+        <v>233</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4013,10 +4076,10 @@
     </row>
     <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B96" s="1">
-        <v>630</v>
+        <v>1982</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4045,10 +4108,10 @@
     </row>
     <row r="97" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B97" s="1">
-        <v>1983</v>
+        <v>630</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4077,10 +4140,10 @@
     </row>
     <row r="98" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B98" s="1">
-        <v>2694</v>
+        <v>1983</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4109,10 +4172,10 @@
     </row>
     <row r="99" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" s="1">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4141,10 +4204,10 @@
     </row>
     <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1">
-        <v>2602</v>
+        <v>2695</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4173,10 +4236,10 @@
     </row>
     <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="1">
-        <v>2815</v>
+        <v>2602</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4205,10 +4268,10 @@
     </row>
     <row r="102" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B102" s="1">
-        <v>3220</v>
+        <v>2815</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4237,10 +4300,10 @@
     </row>
     <row r="103" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="1">
-        <v>2603</v>
+        <v>3220</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4267,12 +4330,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B104" s="1">
-        <v>3502</v>
+        <v>2603</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4301,10 +4364,10 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4333,10 +4396,10 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1">
-        <v>3731</v>
+        <v>3500</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4365,10 +4428,10 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B107" s="1">
-        <v>3880</v>
+        <v>3731</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4397,10 +4460,10 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B108" s="1">
-        <v>3501</v>
+        <v>3880</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4429,10 +4492,10 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1">
-        <v>3653</v>
+        <v>3501</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4459,12 +4522,12 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1">
-        <v>3707</v>
+        <v>3653</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4493,10 +4556,10 @@
     </row>
     <row r="111" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B111" s="1">
-        <v>3816</v>
+        <v>3707</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4525,10 +4588,10 @@
     </row>
     <row r="112" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B112" s="1">
-        <v>3929</v>
+        <v>3816</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4557,10 +4620,10 @@
     </row>
     <row r="113" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B113" s="1">
-        <v>3970</v>
+        <v>3929</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4589,10 +4652,10 @@
     </row>
     <row r="114" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B114" s="1">
-        <v>20076</v>
+        <v>3970</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4621,10 +4684,10 @@
     </row>
     <row r="115" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B115" s="1">
-        <v>3920</v>
+        <v>20076</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4653,10 +4716,10 @@
     </row>
     <row r="116" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116" s="1">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4685,10 +4748,10 @@
     </row>
     <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" s="1">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4717,10 +4780,10 @@
     </row>
     <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B118" s="1">
-        <v>3867</v>
+        <v>3922</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4749,10 +4812,10 @@
     </row>
     <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B119" s="1">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4781,10 +4844,10 @@
     </row>
     <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B120" s="1">
-        <v>3950</v>
+        <v>3868</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4813,10 +4876,10 @@
     </row>
     <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B121" s="1">
-        <v>3871</v>
+        <v>3950</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4845,10 +4908,10 @@
     </row>
     <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="1">
-        <v>3923</v>
+        <v>3871</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4877,10 +4940,10 @@
     </row>
     <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B123" s="1">
-        <v>3949</v>
+        <v>3923</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4909,10 +4972,10 @@
     </row>
     <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B124" s="1">
-        <v>3869</v>
+        <v>3949</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4941,10 +5004,10 @@
     </row>
     <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125" s="1">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -4973,10 +5036,10 @@
     </row>
     <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B126" s="1">
-        <v>3915</v>
+        <v>3872</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5005,10 +5068,10 @@
     </row>
     <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B127" s="1">
-        <v>3870</v>
+        <v>3915</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5037,10 +5100,10 @@
     </row>
     <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B128" s="1">
-        <v>3904</v>
+        <v>3870</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5068,29 +5131,29 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
+      <c r="A129" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="1">
+        <v>20113</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
@@ -5100,29 +5163,29 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" s="8">
-        <v>3688</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
+      <c r="A130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="1">
+        <v>20114</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
@@ -5132,29 +5195,29 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B131" s="8">
-        <v>3528</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
+      <c r="A131" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3904</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
@@ -5164,54 +5227,61 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B132" s="8">
-        <v>3529</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
+      <c r="A132" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" s="8">
-        <v>3648</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
+      <c r="A133" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
@@ -5221,13 +5291,13 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" s="8">
-        <v>3530</v>
-      </c>
-      <c r="C134" s="9"/>
+      <c r="A134" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -5237,13 +5307,13 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="10"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
@@ -5253,29 +5323,29 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
-      <c r="O135" s="11"/>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="11"/>
-      <c r="R135" s="11"/>
-      <c r="S135" s="11"/>
+      <c r="A135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
@@ -5286,10 +5356,10 @@
     </row>
     <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B136" s="1">
-        <v>3495</v>
+        <v>168</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5318,10 +5388,10 @@
     </row>
     <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B137" s="1">
-        <v>3494</v>
+        <v>169</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5350,10 +5420,10 @@
     </row>
     <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B138" s="1">
-        <v>3452</v>
+        <v>170</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5382,10 +5452,10 @@
     </row>
     <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B139" s="1">
-        <v>3520</v>
+        <v>171</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5414,10 +5484,10 @@
     </row>
     <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B140" s="1">
-        <v>3519</v>
+        <v>172</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5445,29 +5515,29 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B141" s="1">
-        <v>3498</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
+      <c r="A141" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="7"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
@@ -5477,29 +5547,29 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B142" s="1">
-        <v>3497</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
+      <c r="A142" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" s="8">
+        <v>3688</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
@@ -5509,29 +5579,29 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B143" s="1">
-        <v>3499</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
+      <c r="A143" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143" s="8">
+        <v>3528</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
@@ -5541,61 +5611,54 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B144" s="1">
-        <v>3487</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
+      <c r="A144" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144" s="8">
+        <v>3529</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
     </row>
     <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B145" s="1">
-        <v>3486</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
+      <c r="A145" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" s="8">
+        <v>3648</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
@@ -5605,13 +5668,13 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B146" s="1">
-        <v>3456</v>
-      </c>
-      <c r="C146" s="2"/>
+      <c r="A146" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="8">
+        <v>3530</v>
+      </c>
+      <c r="C146" s="9"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -5621,13 +5684,13 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+      <c r="O146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
@@ -5637,29 +5700,29 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B147" s="1">
-        <v>3455</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
+      <c r="A147" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
@@ -5670,10 +5733,10 @@
     </row>
     <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B148" s="1">
-        <v>3454</v>
+        <v>3495</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5702,10 +5765,10 @@
     </row>
     <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="B149" s="1">
-        <v>3457</v>
+        <v>3494</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5734,10 +5797,10 @@
     </row>
     <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="B150" s="1">
-        <v>3605</v>
+        <v>3452</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5766,10 +5829,10 @@
     </row>
     <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B151" s="1">
-        <v>3458</v>
+        <v>3520</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5797,29 +5860,29 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A152" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B152" s="12">
-        <v>3459</v>
-      </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="13"/>
-      <c r="P152" s="13"/>
-      <c r="Q152" s="13"/>
-      <c r="R152" s="13"/>
-      <c r="S152" s="13"/>
+      <c r="A152" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B152" s="1">
+        <v>3519</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
@@ -5830,10 +5893,10 @@
     </row>
     <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B153" s="1">
-        <v>3658</v>
+        <v>3498</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5862,10 +5925,10 @@
     </row>
     <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B154" s="1">
-        <v>1963</v>
+        <v>3497</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5894,10 +5957,10 @@
     </row>
     <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B155" s="1">
-        <v>3450</v>
+        <v>3499</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5926,10 +5989,10 @@
     </row>
     <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B156" s="1">
-        <v>3448</v>
+        <v>3487</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5958,10 +6021,10 @@
     </row>
     <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B157" s="1">
-        <v>400</v>
+        <v>3486</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -5990,10 +6053,10 @@
     </row>
     <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B158" s="1">
-        <v>1927</v>
+        <v>3456</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6022,10 +6085,10 @@
     </row>
     <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B159" s="1">
-        <v>3461</v>
+        <v>3455</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6052,12 +6115,12 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B160" s="1">
-        <v>1616</v>
+        <v>3454</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6076,13 +6139,20 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
-    </row>
-    <row r="161" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+    </row>
+    <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B161" s="1">
-        <v>1267</v>
+        <v>3457</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6101,6 +6171,415 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+    </row>
+    <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3605</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+      <c r="Z162" s="3"/>
+    </row>
+    <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3458</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+      <c r="Z163" s="3"/>
+    </row>
+    <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B164" s="12">
+        <v>3459</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
+      <c r="M164" s="13"/>
+      <c r="N164" s="13"/>
+      <c r="O164" s="13"/>
+      <c r="P164" s="13"/>
+      <c r="Q164" s="13"/>
+      <c r="R164" s="13"/>
+      <c r="S164" s="13"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+    </row>
+    <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3658</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+    </row>
+    <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1963</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+    </row>
+    <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3450</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" s="1">
+        <v>3448</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+    </row>
+    <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B169" s="1">
+        <v>400</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+    </row>
+    <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1927</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+    </row>
+    <row r="171" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B171" s="1">
+        <v>3461</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+    </row>
+    <row r="172" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
+        <v>3814</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+      <c r="Z172" s="3"/>
+    </row>
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+    </row>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1267</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C81A17-2F4B-4602-ABCB-AA3E2CCF575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8CDAB-5392-471C-A98D-DFD1B37D8FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="208">
   <si>
     <t>821 BLU</t>
   </si>
@@ -427,9 +427,6 @@
     <t>Lucky Strike AMBER</t>
   </si>
   <si>
-    <t>HEETS DIMENSION NOORE</t>
-  </si>
-  <si>
     <t>HEETS DIMENSION APRICITY</t>
   </si>
   <si>
@@ -566,6 +563,87 @@
   </si>
   <si>
     <t>C8947</t>
+  </si>
+  <si>
+    <t>CHESTER ROSSO MORBIDO</t>
+  </si>
+  <si>
+    <t>CHESTER BLU MORBIDO</t>
+  </si>
+  <si>
+    <t>L&amp;M RED</t>
+  </si>
+  <si>
+    <t>L&amp;M BLUE</t>
+  </si>
+  <si>
+    <t>MS ROSSE DURE</t>
+  </si>
+  <si>
+    <t>MS ROSSE MORBIDE</t>
+  </si>
+  <si>
+    <t>TEREA YELLOW</t>
+  </si>
+  <si>
+    <t>TEREA AMBER</t>
+  </si>
+  <si>
+    <t>TEREA SIENNA</t>
+  </si>
+  <si>
+    <t>TEREA TURQUOISE</t>
+  </si>
+  <si>
+    <t>TEREA BLUE</t>
+  </si>
+  <si>
+    <t>TEREA BRONZE</t>
+  </si>
+  <si>
+    <t>TEREA TEAK</t>
+  </si>
+  <si>
+    <t>TEREA RUSSET</t>
+  </si>
+  <si>
+    <t>TEREA SILVER</t>
+  </si>
+  <si>
+    <t>TEREA MAUVE WAVE</t>
+  </si>
+  <si>
+    <t>TEREA DIMENSION APRICITY</t>
+  </si>
+  <si>
+    <t>TEREA DIMENSION NOOR</t>
+  </si>
+  <si>
+    <t>HEETS DIMENSION NOOR</t>
+  </si>
+  <si>
+    <t>FIIT REGULAR</t>
+  </si>
+  <si>
+    <t>FIIT REGULAR SKY</t>
+  </si>
+  <si>
+    <t>KIT FRESH RED</t>
+  </si>
+  <si>
+    <t>KIT MENTHOL</t>
+  </si>
+  <si>
+    <t>KIT GOLDEN TOBACCO</t>
+  </si>
+  <si>
+    <t>EZ993</t>
+  </si>
+  <si>
+    <t>EZ992</t>
+  </si>
+  <si>
+    <t>EZ059</t>
   </si>
 </sst>
 </file>
@@ -678,7 +756,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,7 +771,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,6 +786,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,46 +1105,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z174"/>
+  <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
-    <col min="3" max="19" width="3.7109375" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="21.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="3.6328125" style="14" customWidth="1"/>
+    <col min="23" max="16384" width="4.54296875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1090,15 +1171,15 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1122,15 +1203,15 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1154,15 +1235,15 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1186,15 +1267,15 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1218,15 +1299,15 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1250,15 +1331,15 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1282,15 +1363,15 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1314,15 +1395,15 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1346,15 +1427,15 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,20 +1459,20 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1">
-        <v>3113</v>
+        <v>2081</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1410,20 +1491,20 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1">
-        <v>3114</v>
+        <v>2082</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1442,20 +1523,20 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>2257</v>
+        <v>3113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1474,20 +1555,20 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1">
-        <v>478</v>
+        <v>3114</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1506,20 +1587,20 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>3590</v>
+        <v>2257</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1538,20 +1619,20 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>632</v>
+        <v>478</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1570,20 +1651,20 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1">
-        <v>546</v>
+        <v>3590</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1602,20 +1683,20 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
-        <v>20225</v>
+        <v>632</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1634,20 +1715,20 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1666,20 +1747,20 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>270</v>
+        <v>20225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1698,20 +1779,20 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>552</v>
+        <v>264</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1730,20 +1811,20 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1762,20 +1843,20 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
-        <v>1784</v>
+        <v>552</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1794,20 +1875,20 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="B25" s="1">
-        <v>134</v>
+        <v>1313</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1826,20 +1907,20 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B26" s="1">
-        <v>1248</v>
+        <v>1303</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1858,20 +1939,20 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1">
-        <v>20226</v>
+        <v>338</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1890,20 +1971,20 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
-        <v>1733</v>
+        <v>1784</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1922,20 +2003,20 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1954,20 +2035,20 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1">
-        <v>1783</v>
+        <v>1248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1986,20 +2067,20 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1">
-        <v>2296</v>
+        <v>20226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2018,20 +2099,20 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1">
-        <v>396</v>
+        <v>1733</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2050,20 +2131,20 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2082,20 +2163,20 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
-        <v>2214</v>
+        <v>1783</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2114,20 +2195,20 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1">
-        <v>3504</v>
+        <v>2296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2146,20 +2227,20 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
-        <v>2658</v>
+        <v>396</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2178,20 +2259,20 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1">
-        <v>819</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2210,20 +2291,20 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
-        <v>395</v>
+        <v>2214</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2242,20 +2323,20 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1">
-        <v>618</v>
+        <v>3504</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2274,20 +2355,20 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>627</v>
+        <v>2658</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2306,20 +2387,20 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>2373</v>
+        <v>819</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2338,20 +2419,20 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>3422</v>
+        <v>395</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2370,20 +2451,20 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
-        <v>2616</v>
+        <v>618</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2402,20 +2483,20 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2434,20 +2515,20 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>9</v>
+        <v>2373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2466,20 +2547,20 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>177</v>
+        <v>3422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2498,20 +2579,20 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1">
-        <v>176</v>
+        <v>2616</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2530,20 +2611,20 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1">
-        <v>857</v>
+        <v>651</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2562,20 +2643,20 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1">
-        <v>3015</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2594,20 +2675,20 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B50" s="1">
-        <v>3016</v>
+        <v>993</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2626,20 +2707,20 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1">
-        <v>2981</v>
+        <v>852</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2658,20 +2739,20 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
-        <v>3118</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2690,20 +2771,20 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
-        <v>3014</v>
+        <v>176</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2722,20 +2803,20 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>2982</v>
+        <v>857</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2754,20 +2835,20 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
-        <v>256</v>
+        <v>3015</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2786,20 +2867,20 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1">
-        <v>949</v>
+        <v>3016</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2818,20 +2899,20 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1">
-        <v>874</v>
+        <v>2981</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2850,20 +2931,20 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>997</v>
+        <v>3118</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2882,20 +2963,20 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1">
-        <v>2423</v>
+        <v>3014</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2914,20 +2995,20 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1">
-        <v>376</v>
+        <v>2982</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2946,20 +3027,20 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1">
-        <v>1634</v>
+        <v>256</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2978,20 +3059,20 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1">
-        <v>81</v>
+        <v>949</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3010,20 +3091,20 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1">
-        <v>649</v>
+        <v>874</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3042,20 +3123,20 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1">
-        <v>231</v>
+        <v>997</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3074,20 +3155,20 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1">
-        <v>2217</v>
+        <v>2423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3106,20 +3187,20 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="B66" s="1">
-        <v>2216</v>
+        <v>376</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3138,20 +3219,20 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B67" s="1">
-        <v>798</v>
+        <v>1634</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3170,20 +3251,20 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3202,20 +3283,20 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
-        <v>3340</v>
+        <v>649</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3234,20 +3315,20 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1">
-        <v>2065</v>
+        <v>231</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3266,20 +3347,20 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B71" s="1">
-        <v>2066</v>
+        <v>2217</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3298,20 +3379,20 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1">
-        <v>3467</v>
+        <v>2216</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3330,20 +3411,20 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1">
-        <v>3007</v>
+        <v>798</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3362,20 +3443,20 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1">
-        <v>3010</v>
+        <v>291</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3394,20 +3475,20 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1">
-        <v>3011</v>
+        <v>3340</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3426,20 +3507,20 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B76" s="1">
-        <v>2654</v>
+        <v>2065</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3458,20 +3539,20 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1">
-        <v>2860</v>
+        <v>2066</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3490,20 +3571,20 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>3012</v>
+        <v>3467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3522,20 +3603,20 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1">
-        <v>2878</v>
+        <v>3007</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3554,20 +3635,20 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1">
-        <v>2880</v>
+        <v>3010</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3586,20 +3667,20 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1">
-        <v>2879</v>
+        <v>3011</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3618,20 +3699,20 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3650,20 +3731,20 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1">
-        <v>2270</v>
+        <v>2860</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3682,20 +3763,20 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1">
-        <v>867</v>
+        <v>3012</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3714,20 +3795,20 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B85" s="1">
-        <v>451</v>
+        <v>2878</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3746,20 +3827,20 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1">
-        <v>536</v>
+        <v>2880</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3778,20 +3859,20 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="B87" s="1">
-        <v>3924</v>
+        <v>2879</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3810,20 +3891,20 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1">
-        <v>560</v>
+        <v>2652</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3842,20 +3923,20 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B89" s="1">
-        <v>951</v>
+        <v>2270</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3874,20 +3955,20 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1">
-        <v>952</v>
+        <v>867</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3906,20 +3987,20 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B91" s="1">
-        <v>876</v>
+        <v>451</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3938,20 +4019,20 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B92" s="1">
-        <v>66</v>
+        <v>536</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3970,20 +4051,20 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="B93" s="1">
-        <v>2771</v>
+        <v>3924</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4002,20 +4083,20 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B94" s="1">
-        <v>3104</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4034,20 +4115,20 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B95" s="1">
-        <v>233</v>
+        <v>951</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4066,20 +4147,20 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="B96" s="1">
-        <v>1982</v>
+        <v>952</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4098,20 +4179,20 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="B97" s="1">
-        <v>630</v>
+        <v>876</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4130,20 +4211,20 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B98" s="1">
-        <v>1983</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4162,20 +4243,20 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>2694</v>
+        <v>2771</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4194,20 +4275,20 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
-        <v>2695</v>
+        <v>3104</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4226,20 +4307,20 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="B101" s="1">
-        <v>2602</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4258,20 +4339,20 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="B102" s="1">
-        <v>2815</v>
+        <v>1982</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4290,20 +4371,20 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1">
-        <v>3220</v>
+        <v>630</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4322,20 +4403,20 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B104" s="1">
-        <v>2603</v>
+        <v>1983</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4354,20 +4435,20 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-      <c r="V104" s="3"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B105" s="1">
-        <v>3502</v>
+        <v>2694</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4386,20 +4467,20 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="3"/>
-      <c r="V105" s="3"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B106" s="1">
-        <v>3500</v>
+        <v>2695</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4418,20 +4499,20 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-      <c r="V106" s="3"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B107" s="1">
-        <v>3731</v>
+        <v>2602</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4450,20 +4531,20 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="B108" s="1">
-        <v>3880</v>
+        <v>2815</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4482,20 +4563,20 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="B109" s="1">
-        <v>3501</v>
+        <v>3220</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4514,20 +4595,20 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B110" s="1">
-        <v>3653</v>
+        <v>2603</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4546,20 +4627,20 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1">
-        <v>3707</v>
+        <v>3502</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4578,20 +4659,20 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1">
-        <v>3816</v>
+        <v>3500</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4610,20 +4691,20 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B113" s="1">
-        <v>3929</v>
+        <v>3731</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4642,20 +4723,20 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B114" s="1">
-        <v>3970</v>
+        <v>3880</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4674,20 +4755,20 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B115" s="1">
-        <v>20076</v>
+        <v>3501</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4706,20 +4787,20 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B116" s="1">
-        <v>3920</v>
+        <v>3653</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4738,20 +4819,20 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
-      <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B117" s="1">
-        <v>3921</v>
+        <v>3707</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4770,20 +4851,20 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
-      <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B118" s="1">
-        <v>3922</v>
+        <v>3816</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4802,20 +4883,20 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
-      <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B119" s="1">
-        <v>3867</v>
+        <v>3929</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4834,20 +4915,20 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
-      <c r="T119" s="3"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B120" s="1">
-        <v>3868</v>
+        <v>3970</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4866,20 +4947,20 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B121" s="1">
-        <v>3950</v>
+        <v>20076</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4898,20 +4979,20 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
-      <c r="T121" s="3"/>
-      <c r="U121" s="3"/>
-      <c r="V121" s="3"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B122" s="1">
-        <v>3871</v>
+        <v>3920</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4930,20 +5011,20 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B123" s="1">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4962,20 +5043,20 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
-      <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="B124" s="1">
-        <v>3949</v>
+        <v>3922</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4994,20 +5075,20 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
-      <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="B125" s="1">
-        <v>3869</v>
+        <v>20155</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5026,20 +5107,20 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
-      <c r="T125" s="3"/>
-      <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="B126" s="1">
-        <v>3872</v>
+        <v>20146</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5058,20 +5139,20 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
-      <c r="T126" s="3"/>
-      <c r="U126" s="3"/>
-      <c r="V126" s="3"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="B127" s="1">
-        <v>3915</v>
+        <v>20151</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5090,20 +5171,20 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B128" s="1">
-        <v>3870</v>
+        <v>20154</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5122,20 +5203,20 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B129" s="1">
-        <v>20113</v>
+        <v>20147</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5154,20 +5235,20 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
-      <c r="T129" s="3"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="B130" s="1">
-        <v>20114</v>
+        <v>20148</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5186,20 +5267,20 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="B131" s="1">
-        <v>3904</v>
+        <v>20153</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5218,20 +5299,20 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
-      <c r="T131" s="3"/>
-      <c r="U131" s="3"/>
-      <c r="V131" s="3"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
+      </c>
+      <c r="B132" s="1">
+        <v>26150</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5250,20 +5331,20 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
-      <c r="T132" s="3"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
+      </c>
+      <c r="B133" s="1">
+        <v>20152</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5282,20 +5363,20 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
+      </c>
+      <c r="B134" s="1">
+        <v>20149</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5314,20 +5395,20 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
-      <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
+      </c>
+      <c r="B135" s="1">
+        <v>20429</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5346,20 +5427,20 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
-      <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
+      </c>
+      <c r="B136" s="1">
+        <v>20430</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5378,20 +5459,20 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
-      <c r="T136" s="3"/>
-      <c r="U136" s="3"/>
-      <c r="V136" s="3"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="B137" s="1">
+        <v>20065</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5410,20 +5491,20 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
-      <c r="T137" s="3"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
+      </c>
+      <c r="B138" s="1">
+        <v>20203</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5442,20 +5523,20 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
-      <c r="T138" s="3"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3867</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5474,20 +5555,20 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
-      <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3868</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5506,175 +5587,182 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
-      <c r="T140" s="3"/>
-      <c r="U140" s="3"/>
-      <c r="V140" s="3"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-      <c r="S141" s="7"/>
-      <c r="T141" s="3"/>
-      <c r="U141" s="3"/>
-      <c r="V141" s="3"/>
+    <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3950</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" s="8">
-        <v>3688</v>
-      </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="T142" s="3"/>
-      <c r="U142" s="3"/>
-      <c r="V142" s="3"/>
+    <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1">
+        <v>3871</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B143" s="8">
-        <v>3528</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="3"/>
-      <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
+    <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3923</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B144" s="8">
-        <v>3529</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-    </row>
-    <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B145" s="8">
-        <v>3648</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
-      <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
+    <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="1">
+        <v>3949</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3869</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B146" s="8">
-        <v>3530</v>
-      </c>
-      <c r="C146" s="9"/>
+    <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3872</v>
+      </c>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -5684,59 +5772,59 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="3"/>
-      <c r="U146" s="3"/>
-      <c r="V146" s="3"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="3"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
+    <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3915</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>3495</v>
+        <v>3870</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5755,20 +5843,20 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
-      <c r="T148" s="3"/>
-      <c r="U148" s="3"/>
-      <c r="V148" s="3"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B149" s="1">
-        <v>3494</v>
+        <v>20113</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5787,20 +5875,20 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
-      <c r="T149" s="3"/>
-      <c r="U149" s="3"/>
-      <c r="V149" s="3"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="B150" s="1">
-        <v>3452</v>
+        <v>20114</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5819,20 +5907,20 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
-      <c r="T150" s="3"/>
-      <c r="U150" s="3"/>
-      <c r="V150" s="3"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>3520</v>
+        <v>3904</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5851,20 +5939,20 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
-      <c r="T151" s="3"/>
-      <c r="U151" s="3"/>
-      <c r="V151" s="3"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B152" s="1">
-        <v>3519</v>
+        <v>163</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5883,20 +5971,20 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
-      <c r="T152" s="3"/>
-      <c r="U152" s="3"/>
-      <c r="V152" s="3"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2"/>
+      <c r="V152" s="2"/>
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B153" s="1">
-        <v>3498</v>
+        <v>164</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5915,20 +6003,20 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
-      <c r="T153" s="3"/>
-      <c r="U153" s="3"/>
-      <c r="V153" s="3"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2"/>
+      <c r="V153" s="2"/>
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B154" s="1">
-        <v>3497</v>
+        <v>165</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5947,20 +6035,20 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
-      <c r="T154" s="3"/>
-      <c r="U154" s="3"/>
-      <c r="V154" s="3"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2"/>
+      <c r="V154" s="2"/>
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B155" s="1">
-        <v>3499</v>
+        <v>166</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5979,20 +6067,20 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
-      <c r="T155" s="3"/>
-      <c r="U155" s="3"/>
-      <c r="V155" s="3"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2"/>
+      <c r="V155" s="2"/>
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B156" s="1">
-        <v>3487</v>
+        <v>167</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6011,20 +6099,20 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
-      <c r="T156" s="3"/>
-      <c r="U156" s="3"/>
-      <c r="V156" s="3"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2"/>
+      <c r="V156" s="2"/>
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B157" s="1">
-        <v>3486</v>
+        <v>168</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6043,20 +6131,20 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
-      <c r="T157" s="3"/>
-      <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
+      <c r="T157" s="2"/>
+      <c r="U157" s="2"/>
+      <c r="V157" s="2"/>
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B158" s="1">
-        <v>3456</v>
+        <v>169</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6075,20 +6163,20 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
-      <c r="T158" s="3"/>
-      <c r="U158" s="3"/>
-      <c r="V158" s="3"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2"/>
+      <c r="V158" s="2"/>
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B159" s="1">
-        <v>3455</v>
+        <v>170</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6107,20 +6195,20 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
-      <c r="T159" s="3"/>
-      <c r="U159" s="3"/>
-      <c r="V159" s="3"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="2"/>
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B160" s="1">
-        <v>3454</v>
+        <v>171</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6139,20 +6227,20 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
-      <c r="T160" s="3"/>
-      <c r="U160" s="3"/>
-      <c r="V160" s="3"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2"/>
+      <c r="V160" s="2"/>
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B161" s="1">
-        <v>3457</v>
+        <v>202</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6171,20 +6259,20 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
-      <c r="T161" s="3"/>
-      <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2"/>
+      <c r="V161" s="2"/>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162" s="1">
-        <v>3605</v>
+        <v>203</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6203,20 +6291,20 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B163" s="1">
-        <v>3458</v>
+        <v>204</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6235,182 +6323,178 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A164" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B164" s="12">
-        <v>3459</v>
-      </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="13"/>
-      <c r="M164" s="13"/>
-      <c r="N164" s="13"/>
-      <c r="O164" s="13"/>
-      <c r="P164" s="13"/>
-      <c r="Q164" s="13"/>
-      <c r="R164" s="13"/>
-      <c r="S164" s="13"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
+    <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B165" s="1">
-        <v>3658</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
+    <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" s="7">
+        <v>3688</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="8"/>
+      <c r="R165" s="8"/>
+      <c r="S165" s="8"/>
+      <c r="T165" s="8"/>
+      <c r="U165" s="8"/>
+      <c r="V165" s="8"/>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B166" s="1">
-        <v>1963</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
+    <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" s="7">
+        <v>3528</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="8"/>
+      <c r="R166" s="8"/>
+      <c r="S166" s="8"/>
+      <c r="T166" s="8"/>
+      <c r="U166" s="8"/>
+      <c r="V166" s="8"/>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B167" s="1">
-        <v>3450</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="3"/>
-      <c r="U167" s="3"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-    </row>
-    <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B168" s="1">
-        <v>3448</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="3"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
+    <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" s="7">
+        <v>3529</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+      <c r="S167" s="8"/>
+      <c r="T167" s="8"/>
+      <c r="U167" s="8"/>
+      <c r="V167" s="8"/>
+    </row>
+    <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="7">
+        <v>3648</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+      <c r="S168" s="8"/>
+      <c r="T168" s="8"/>
+      <c r="U168" s="8"/>
+      <c r="V168" s="8"/>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B169" s="1">
-        <v>400</v>
-      </c>
-      <c r="C169" s="2"/>
+    <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="7">
+        <v>3530</v>
+      </c>
+      <c r="C169" s="8"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -6420,59 +6504,59 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+      <c r="Q169" s="15"/>
+      <c r="R169" s="15"/>
+      <c r="S169" s="15"/>
+      <c r="T169" s="15"/>
+      <c r="U169" s="15"/>
+      <c r="V169" s="15"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B170" s="1">
-        <v>1927</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
+    <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
+      <c r="R170" s="9"/>
+      <c r="S170" s="9"/>
+      <c r="T170" s="9"/>
+      <c r="U170" s="9"/>
+      <c r="V170" s="9"/>
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B171" s="1">
-        <v>3461</v>
+        <v>3495</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6491,20 +6575,20 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2"/>
+      <c r="V171" s="2"/>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B172" s="1">
-        <v>3814</v>
+        <v>3494</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6523,20 +6607,20 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
-      <c r="T172" s="3"/>
-      <c r="U172" s="3"/>
-      <c r="V172" s="3"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2"/>
+      <c r="V172" s="2"/>
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B173" s="1">
-        <v>1616</v>
+        <v>3452</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6555,13 +6639,20 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T173" s="2"/>
+      <c r="U173" s="2"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="3"/>
+      <c r="Z173" s="3"/>
+    </row>
+    <row r="174" spans="1:26" ht="12" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B174" s="1">
-        <v>1267</v>
+        <v>3520</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6580,6 +6671,741 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
+    </row>
+    <row r="175" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" s="1">
+        <v>3519</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
+      <c r="Y175" s="3"/>
+      <c r="Z175" s="3"/>
+    </row>
+    <row r="176" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="1">
+        <v>3498</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
+      <c r="Y176" s="3"/>
+      <c r="Z176" s="3"/>
+    </row>
+    <row r="177" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B177" s="1">
+        <v>3497</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2"/>
+      <c r="V177" s="2"/>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+      <c r="Y177" s="3"/>
+      <c r="Z177" s="3"/>
+    </row>
+    <row r="178" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B178" s="1">
+        <v>3499</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2"/>
+      <c r="V178" s="2"/>
+      <c r="W178" s="3"/>
+      <c r="X178" s="3"/>
+      <c r="Y178" s="3"/>
+      <c r="Z178" s="3"/>
+    </row>
+    <row r="179" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B179" s="1">
+        <v>3487</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="2"/>
+      <c r="V179" s="2"/>
+      <c r="W179" s="3"/>
+      <c r="X179" s="3"/>
+      <c r="Y179" s="3"/>
+      <c r="Z179" s="3"/>
+    </row>
+    <row r="180" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B180" s="1">
+        <v>3486</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="2"/>
+      <c r="V180" s="2"/>
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+      <c r="Y180" s="3"/>
+      <c r="Z180" s="3"/>
+    </row>
+    <row r="181" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3456</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+      <c r="Y181" s="3"/>
+      <c r="Z181" s="3"/>
+    </row>
+    <row r="182" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3455</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+      <c r="Y182" s="3"/>
+      <c r="Z182" s="3"/>
+    </row>
+    <row r="183" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B183" s="1">
+        <v>3454</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="3"/>
+      <c r="Z183" s="3"/>
+    </row>
+    <row r="184" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" s="1">
+        <v>3457</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
+    </row>
+    <row r="185" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B185" s="1">
+        <v>3605</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="3"/>
+      <c r="Z185" s="3"/>
+    </row>
+    <row r="186" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B186" s="1">
+        <v>3458</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="3"/>
+      <c r="Z186" s="3"/>
+    </row>
+    <row r="187" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B187" s="10">
+        <v>3459</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="11"/>
+      <c r="U187" s="11"/>
+      <c r="V187" s="11"/>
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
+      <c r="Y187" s="3"/>
+      <c r="Z187" s="3"/>
+    </row>
+    <row r="188" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B188" s="1">
+        <v>3658</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+      <c r="Y188" s="3"/>
+      <c r="Z188" s="3"/>
+    </row>
+    <row r="189" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1963</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+      <c r="Y189" s="3"/>
+      <c r="Z189" s="3"/>
+    </row>
+    <row r="190" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B190" s="1">
+        <v>3450</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2"/>
+      <c r="V190" s="2"/>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+      <c r="Y190" s="3"/>
+      <c r="Z190" s="3"/>
+    </row>
+    <row r="191" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B191" s="1">
+        <v>3448</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2"/>
+      <c r="V191" s="2"/>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+      <c r="Y191" s="3"/>
+      <c r="Z191" s="3"/>
+    </row>
+    <row r="192" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B192" s="1">
+        <v>400</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+      <c r="Y192" s="3"/>
+      <c r="Z192" s="3"/>
+    </row>
+    <row r="193" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1927</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+      <c r="Y193" s="3"/>
+      <c r="Z193" s="3"/>
+    </row>
+    <row r="194" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3461</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
+      <c r="Y194" s="3"/>
+      <c r="Z194" s="3"/>
+    </row>
+    <row r="195" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1">
+        <v>3814</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+      <c r="Y195" s="3"/>
+      <c r="Z195" s="3"/>
+    </row>
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2"/>
+      <c r="V196" s="2"/>
+    </row>
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1267</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8CDAB-5392-471C-A98D-DFD1B37D8FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08076A5F-287D-402E-AB26-82ACB9C56A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="206">
   <si>
     <t>821 BLU</t>
   </si>
@@ -85,9 +85,6 @@
     <t>DUNHILL ROSSO SLIM</t>
   </si>
   <si>
-    <t>Esportazione CART 20</t>
-  </si>
-  <si>
     <t>GLAMOUR BLU SLIM</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Lucky Strike ROSSO MORBIDO</t>
   </si>
   <si>
-    <t>Camel BLU CONNECT</t>
-  </si>
-  <si>
     <t>Camel GIALLO MORBIDO</t>
   </si>
   <si>
@@ -427,12 +421,6 @@
     <t>Lucky Strike AMBER</t>
   </si>
   <si>
-    <t>HEETS DIMENSION APRICITY</t>
-  </si>
-  <si>
-    <t>HEETS DIMENSION AMMILL</t>
-  </si>
-  <si>
     <t>OLD HOLBORN BLU</t>
   </si>
   <si>
@@ -469,18 +457,12 @@
     <t>HEETS RUSSET</t>
   </si>
   <si>
-    <t>MOODS</t>
-  </si>
-  <si>
     <t>DIANA BLU 100</t>
   </si>
   <si>
     <t>DIANA ROSSA 100</t>
   </si>
   <si>
-    <t>CAMEL GIALLO</t>
-  </si>
-  <si>
     <t>NEO ARCTIC BLUE</t>
   </si>
   <si>
@@ -493,9 +475,6 @@
     <t>HEETS SILVER</t>
   </si>
   <si>
-    <t>CAMEL BLONDE</t>
-  </si>
-  <si>
     <t>HEETS MAUVE WAVE</t>
   </si>
   <si>
@@ -505,12 +484,6 @@
     <t>NEO MORNING</t>
   </si>
   <si>
-    <t>NEO TWILIGHT</t>
-  </si>
-  <si>
-    <t>Lucky Strike Compact</t>
-  </si>
-  <si>
     <t>RELX CLASSIC TOBACCO</t>
   </si>
   <si>
@@ -613,21 +586,6 @@
     <t>TEREA MAUVE WAVE</t>
   </si>
   <si>
-    <t>TEREA DIMENSION APRICITY</t>
-  </si>
-  <si>
-    <t>TEREA DIMENSION NOOR</t>
-  </si>
-  <si>
-    <t>HEETS DIMENSION NOOR</t>
-  </si>
-  <si>
-    <t>FIIT REGULAR</t>
-  </si>
-  <si>
-    <t>FIIT REGULAR SKY</t>
-  </si>
-  <si>
     <t>KIT FRESH RED</t>
   </si>
   <si>
@@ -644,6 +602,42 @@
   </si>
   <si>
     <t>EZ059</t>
+  </si>
+  <si>
+    <t>BENSON WHITE 100S</t>
+  </si>
+  <si>
+    <t>CAMEL PURPLE</t>
+  </si>
+  <si>
+    <t>CHESTERFIELD TUNED</t>
+  </si>
+  <si>
+    <t>LUCKY STRIKE ECLIPSE</t>
+  </si>
+  <si>
+    <t>MARLBORO CRAFTED GOLD</t>
+  </si>
+  <si>
+    <t>MARLBORO CRAFTED RED</t>
+  </si>
+  <si>
+    <t>SIGNATURE GREEN</t>
+  </si>
+  <si>
+    <t>VOGUE LILAS</t>
+  </si>
+  <si>
+    <t>West RED 100</t>
+  </si>
+  <si>
+    <t>MARLBORO BLU SLIM</t>
+  </si>
+  <si>
+    <t>West BLU</t>
+  </si>
+  <si>
+    <t>West BLU 100</t>
   </si>
 </sst>
 </file>
@@ -786,8 +780,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,26 +1099,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z197"/>
+  <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.53125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="3.6328125" style="14" customWidth="1"/>
-    <col min="23" max="16384" width="4.54296875" style="14"/>
+    <col min="1" max="1" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="3.59765625" style="14" customWidth="1"/>
+    <col min="23" max="16384" width="4.53125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1147,9 +1141,9 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>2957</v>
@@ -1179,9 +1173,9 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2956</v>
@@ -1211,9 +1205,9 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>293</v>
@@ -1243,9 +1237,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>2286</v>
@@ -1275,9 +1269,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>300</v>
@@ -1307,9 +1301,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>2288</v>
@@ -1339,9 +1333,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>2287</v>
@@ -1371,9 +1365,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>2883</v>
@@ -1403,7 +1397,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,7 +1429,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1467,9 +1461,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1">
         <v>2081</v>
@@ -1499,9 +1493,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B13" s="1">
         <v>2082</v>
@@ -1531,7 +1525,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,9 +1557,9 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1">
         <v>3114</v>
@@ -1595,7 +1589,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1627,12 +1621,12 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="B17" s="1">
-        <v>478</v>
+        <v>20077</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1659,12 +1653,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>3590</v>
+        <v>478</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1691,7 +1685,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +1717,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1749,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1781,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1819,9 +1813,9 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1">
         <v>270</v>
@@ -1851,7 +1845,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1883,9 +1877,9 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1">
         <v>1313</v>
@@ -1915,9 +1909,9 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1">
         <v>1303</v>
@@ -1947,9 +1941,9 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1">
         <v>338</v>
@@ -1979,9 +1973,9 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1">
         <v>1784</v>
@@ -2011,9 +2005,9 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1">
         <v>134</v>
@@ -2043,9 +2037,9 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1">
         <v>1248</v>
@@ -2075,9 +2069,9 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B31" s="1">
         <v>20226</v>
@@ -2107,9 +2101,9 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>1733</v>
@@ -2139,9 +2133,9 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1">
         <v>91</v>
@@ -2171,9 +2165,9 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>1783</v>
@@ -2203,9 +2197,9 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1">
         <v>2296</v>
@@ -2235,9 +2229,9 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>396</v>
@@ -2267,9 +2261,9 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1">
         <v>259</v>
@@ -2299,9 +2293,9 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>2214</v>
@@ -2331,9 +2325,9 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1">
         <v>3504</v>
@@ -2363,9 +2357,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
         <v>2658</v>
@@ -2395,9 +2389,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>819</v>
@@ -2427,9 +2421,9 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>395</v>
@@ -2459,9 +2453,9 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1">
         <v>618</v>
@@ -2491,12 +2485,12 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>627</v>
+        <v>2373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2523,12 +2517,12 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>2373</v>
+        <v>3422</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2555,12 +2549,12 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1">
-        <v>3422</v>
+        <v>2616</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2587,12 +2581,12 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1">
-        <v>2616</v>
+        <v>651</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2619,12 +2613,12 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="1">
-        <v>651</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2651,12 +2645,12 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="B49" s="1">
-        <v>9</v>
+        <v>3906</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2683,12 +2677,12 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1">
-        <v>993</v>
+        <v>3907</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2715,12 +2709,12 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B51" s="1">
-        <v>852</v>
+        <v>993</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2747,12 +2741,12 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="B52" s="1">
-        <v>177</v>
+        <v>852</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2779,12 +2773,12 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2811,12 +2805,12 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>857</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2843,12 +2837,12 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>3015</v>
+        <v>857</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2875,12 +2869,12 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2907,12 +2901,12 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>2981</v>
+        <v>3016</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2939,12 +2933,12 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1">
-        <v>3118</v>
+        <v>2981</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2971,12 +2965,12 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>3014</v>
+        <v>3118</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3003,12 +2997,12 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
-        <v>2982</v>
+        <v>3014</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3035,12 +3029,12 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="B61" s="1">
-        <v>256</v>
+        <v>3416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3067,12 +3061,12 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1">
-        <v>949</v>
+        <v>2982</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3099,12 +3093,12 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="1">
-        <v>874</v>
+        <v>256</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3131,12 +3125,12 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="1">
-        <v>997</v>
+        <v>949</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3163,12 +3157,12 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B65" s="1">
-        <v>2423</v>
+        <v>874</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3195,12 +3189,12 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1">
-        <v>376</v>
+        <v>997</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3227,12 +3221,12 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1">
-        <v>1634</v>
+        <v>2423</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3259,12 +3253,12 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B68" s="1">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3291,12 +3285,12 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1">
-        <v>649</v>
+        <v>1634</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3323,12 +3317,12 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="B70" s="1">
-        <v>231</v>
+        <v>3840</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3355,12 +3349,12 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B71" s="1">
-        <v>2217</v>
+        <v>1635</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3387,12 +3381,12 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B72" s="1">
-        <v>2216</v>
+        <v>3839</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3419,12 +3413,12 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="B73" s="1">
-        <v>798</v>
+        <v>292</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3451,12 +3445,12 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B74" s="1">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3483,12 +3477,12 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B75" s="1">
-        <v>3340</v>
+        <v>649</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3515,12 +3509,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1">
-        <v>2065</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3547,12 +3541,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B77" s="1">
-        <v>2066</v>
+        <v>2217</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3579,12 +3573,12 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B78" s="1">
-        <v>3467</v>
+        <v>2216</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3611,12 +3605,12 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1">
-        <v>3007</v>
+        <v>798</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3643,12 +3637,12 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B80" s="1">
-        <v>3010</v>
+        <v>291</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3675,12 +3669,12 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B81" s="1">
-        <v>3011</v>
+        <v>3340</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3707,12 +3701,12 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="B82" s="1">
-        <v>2654</v>
+        <v>3341</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3739,12 +3733,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1">
-        <v>2860</v>
+        <v>2065</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3771,12 +3765,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>3012</v>
+        <v>2066</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3803,12 +3797,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1">
-        <v>2878</v>
+        <v>3467</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3835,12 +3829,12 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B86" s="1">
-        <v>2880</v>
+        <v>3007</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3867,12 +3861,12 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B87" s="1">
-        <v>2879</v>
+        <v>3010</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3899,12 +3893,12 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1">
-        <v>2652</v>
+        <v>3011</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3931,12 +3925,12 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B89" s="1">
-        <v>2270</v>
+        <v>2654</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3963,12 +3957,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B90" s="1">
-        <v>867</v>
+        <v>2860</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3995,12 +3989,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B91" s="1">
-        <v>451</v>
+        <v>3012</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4027,12 +4021,12 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B92" s="1">
-        <v>536</v>
+        <v>2878</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4059,12 +4053,12 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="B93" s="1">
-        <v>3924</v>
+        <v>2880</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4091,12 +4085,12 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B94" s="1">
-        <v>560</v>
+        <v>2879</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4123,12 +4117,12 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
-        <v>951</v>
+        <v>2652</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4155,12 +4149,12 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B96" s="1">
-        <v>952</v>
+        <v>2270</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4187,12 +4181,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B97" s="1">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4219,12 +4213,12 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B98" s="1">
-        <v>66</v>
+        <v>451</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4251,12 +4245,12 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B99" s="1">
-        <v>2771</v>
+        <v>536</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4283,12 +4277,12 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="B100" s="1">
-        <v>3104</v>
+        <v>3947</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4315,12 +4309,12 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B101" s="1">
-        <v>233</v>
+        <v>560</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4347,12 +4341,12 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="B102" s="1">
-        <v>1982</v>
+        <v>951</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4379,12 +4373,12 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B103" s="1">
-        <v>630</v>
+        <v>952</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4411,12 +4405,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="B104" s="1">
-        <v>1983</v>
+        <v>876</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4443,12 +4437,12 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B105" s="1">
-        <v>2694</v>
+        <v>66</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4475,12 +4469,12 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
-        <v>2695</v>
+        <v>2771</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4507,12 +4501,12 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
-        <v>2602</v>
+        <v>3104</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4539,12 +4533,12 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B108" s="1">
-        <v>2815</v>
+        <v>233</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4571,12 +4565,12 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B109" s="1">
-        <v>3220</v>
+        <v>1982</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4603,12 +4597,12 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="B110" s="1">
-        <v>2603</v>
+        <v>630</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4635,12 +4629,12 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B111" s="1">
-        <v>3502</v>
+        <v>1983</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4667,12 +4661,12 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B112" s="1">
-        <v>3500</v>
+        <v>2694</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4699,12 +4693,12 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B113" s="1">
-        <v>3731</v>
+        <v>2695</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4731,12 +4725,12 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="B114" s="1">
-        <v>3880</v>
+        <v>2602</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4763,12 +4757,12 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B115" s="1">
-        <v>3501</v>
+        <v>2815</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4795,12 +4789,12 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B116" s="1">
-        <v>3653</v>
+        <v>3220</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4827,12 +4821,12 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B117" s="1">
-        <v>3707</v>
+        <v>2603</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4859,12 +4853,12 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1">
-        <v>3816</v>
+        <v>3502</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4891,12 +4885,12 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B119" s="1">
-        <v>3929</v>
+        <v>3500</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4923,12 +4917,12 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B120" s="1">
-        <v>3970</v>
+        <v>3731</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4955,12 +4949,12 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B121" s="1">
-        <v>20076</v>
+        <v>3880</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4987,12 +4981,12 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1">
-        <v>3920</v>
+        <v>3501</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5019,12 +5013,12 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1">
-        <v>3921</v>
+        <v>3653</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5051,12 +5045,12 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="B124" s="1">
-        <v>3922</v>
+        <v>3707</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5083,12 +5077,12 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1">
-        <v>20155</v>
+        <v>3816</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5115,12 +5109,12 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B126" s="1">
-        <v>20146</v>
+        <v>3929</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5147,12 +5141,12 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B127" s="1">
-        <v>20151</v>
+        <v>3970</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5179,12 +5173,12 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B128" s="1">
-        <v>20154</v>
+        <v>20076</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5211,12 +5205,12 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B129" s="1">
-        <v>20147</v>
+        <v>20155</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5243,12 +5237,12 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B130" s="1">
-        <v>20148</v>
+        <v>20146</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5275,12 +5269,12 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B131" s="1">
-        <v>20153</v>
+        <v>20151</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5307,12 +5301,12 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B132" s="1">
-        <v>26150</v>
+        <v>20154</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5339,12 +5333,12 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B133" s="1">
-        <v>20152</v>
+        <v>20147</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5371,12 +5365,12 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B134" s="1">
-        <v>20149</v>
+        <v>20148</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5403,12 +5397,12 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B135" s="1">
-        <v>20429</v>
+        <v>20153</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5435,12 +5429,12 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B136" s="1">
-        <v>20430</v>
+        <v>20150</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5467,12 +5461,12 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B137" s="1">
-        <v>20065</v>
+        <v>20152</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5499,12 +5493,12 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B138" s="1">
-        <v>20203</v>
+        <v>20149</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5531,9 +5525,9 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1">
         <v>3867</v>
@@ -5563,9 +5557,9 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1">
         <v>3868</v>
@@ -5595,9 +5589,9 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B141" s="1">
         <v>3950</v>
@@ -5627,9 +5621,9 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B142" s="1">
         <v>3871</v>
@@ -5659,9 +5653,9 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B143" s="1">
         <v>3923</v>
@@ -5691,9 +5685,9 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B144" s="1">
         <v>3949</v>
@@ -5723,9 +5717,9 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B145" s="1">
         <v>3869</v>
@@ -5755,9 +5749,9 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B146" s="1">
         <v>3872</v>
@@ -5787,9 +5781,9 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B147" s="1">
         <v>3915</v>
@@ -5819,9 +5813,9 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B148" s="1">
         <v>3870</v>
@@ -5851,9 +5845,9 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B149" s="1">
         <v>20113</v>
@@ -5883,12 +5877,12 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150" s="1">
-        <v>20114</v>
+        <v>154</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5915,12 +5909,12 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1">
-        <v>3904</v>
+        <v>155</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5947,12 +5941,12 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5979,12 +5973,12 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6011,12 +6005,12 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6043,12 +6037,12 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6075,12 +6069,12 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6107,12 +6101,12 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6139,12 +6133,12 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6171,12 +6165,12 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6203,12 +6197,12 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6235,12 +6229,12 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6267,108 +6261,108 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="12" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
+    <row r="162" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="12" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
+    <row r="163" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B163" s="7">
+        <v>3688</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="8"/>
+      <c r="U163" s="8"/>
+      <c r="V163" s="8"/>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="12" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-      <c r="T164" s="6"/>
-      <c r="U164" s="6"/>
-      <c r="V164" s="6"/>
+    <row r="164" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B164" s="7">
+        <v>3528</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+      <c r="Q164" s="8"/>
+      <c r="R164" s="8"/>
+      <c r="S164" s="8"/>
+      <c r="T164" s="8"/>
+      <c r="U164" s="8"/>
+      <c r="V164" s="8"/>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B165" s="7">
-        <v>3688</v>
+        <v>3529</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -6390,17 +6384,13 @@
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
       <c r="V165" s="8"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-    </row>
-    <row r="166" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="B166" s="7">
-        <v>3528</v>
+        <v>3812</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -6422,17 +6412,13 @@
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
       <c r="V166" s="8"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-    </row>
-    <row r="167" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B167" s="7">
-        <v>3529</v>
+        <v>3648</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -6454,13 +6440,17 @@
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
       <c r="V167" s="8"/>
-    </row>
-    <row r="168" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B168" s="7">
-        <v>3648</v>
+        <v>3530</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -6487,12 +6477,12 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="B169" s="7">
-        <v>3530</v>
+        <v>3670</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="2"/>
@@ -6519,12 +6509,12 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="9"/>
@@ -6551,9 +6541,9 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B171" s="1">
         <v>3495</v>
@@ -6583,9 +6573,9 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B172" s="1">
         <v>3494</v>
@@ -6615,9 +6605,9 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B173" s="1">
         <v>3452</v>
@@ -6647,9 +6637,9 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B174" s="1">
         <v>3520</v>
@@ -6679,9 +6669,9 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B175" s="1">
         <v>3519</v>
@@ -6711,9 +6701,9 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B176" s="1">
         <v>3498</v>
@@ -6743,9 +6733,9 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B177" s="1">
         <v>3497</v>
@@ -6775,9 +6765,9 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B178" s="1">
         <v>3499</v>
@@ -6807,9 +6797,9 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B179" s="1">
         <v>3487</v>
@@ -6839,9 +6829,9 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B180" s="1">
         <v>3486</v>
@@ -6871,9 +6861,9 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B181" s="1">
         <v>3456</v>
@@ -6903,9 +6893,9 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B182" s="1">
         <v>3455</v>
@@ -6935,9 +6925,9 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B183" s="1">
         <v>3454</v>
@@ -6967,12 +6957,12 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B184" s="1">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -6999,44 +6989,44 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="12" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B185" s="1">
-        <v>3605</v>
-      </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
+    <row r="185" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A185" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B185" s="10">
+        <v>3459</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+      <c r="T185" s="11"/>
+      <c r="U185" s="11"/>
+      <c r="V185" s="11"/>
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B186" s="1">
-        <v>3458</v>
+        <v>3658</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -7063,44 +7053,44 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="12" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B187" s="10">
-        <v>3459</v>
-      </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
-      <c r="P187" s="11"/>
-      <c r="Q187" s="11"/>
-      <c r="R187" s="11"/>
-      <c r="S187" s="11"/>
-      <c r="T187" s="11"/>
-      <c r="U187" s="11"/>
-      <c r="V187" s="11"/>
+    <row r="187" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1963</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="2"/>
+      <c r="V187" s="2"/>
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B188" s="1">
-        <v>3658</v>
+        <v>3450</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -7127,12 +7117,12 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B189" s="1">
-        <v>1963</v>
+        <v>3448</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -7159,12 +7149,12 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B190" s="1">
-        <v>3450</v>
+        <v>400</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -7191,12 +7181,12 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B191" s="1">
-        <v>3448</v>
+        <v>1927</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7223,12 +7213,12 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B192" s="1">
-        <v>400</v>
+        <v>3461</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -7255,12 +7245,12 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B193" s="1">
-        <v>1927</v>
+        <v>3814</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -7287,12 +7277,12 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B194" s="1">
-        <v>3461</v>
+        <v>1616</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -7314,17 +7304,13 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-    </row>
-    <row r="195" spans="1:26" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="B195" s="1">
-        <v>3814</v>
+        <v>1267</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -7346,66 +7332,6 @@
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B196" s="1">
-        <v>1616</v>
-      </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
-      <c r="V196" s="2"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B197" s="1">
-        <v>1267</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
-      <c r="V197" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08076A5F-287D-402E-AB26-82ACB9C56A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D696F4-16A0-4B5A-9A29-012B752B167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
   <si>
     <t>821 BLU</t>
   </si>
@@ -49,9 +49,6 @@
     <t>BENSON ROSSO</t>
   </si>
   <si>
-    <t>Camel BLU 100</t>
-  </si>
-  <si>
     <t>Camel BLU DURO</t>
   </si>
   <si>
@@ -382,42 +379,18 @@
     <t>Rothmans GRIGIO</t>
   </si>
   <si>
-    <t>HEETS AMBER</t>
-  </si>
-  <si>
-    <t>HEETS YELLOW</t>
-  </si>
-  <si>
-    <t>HEETS SIENNA</t>
-  </si>
-  <si>
-    <t>HEETS TURQUOISE</t>
-  </si>
-  <si>
-    <t>HEETS BLUE</t>
-  </si>
-  <si>
-    <t>HEETS BRONZE</t>
-  </si>
-  <si>
     <t>LUCKY STRIKE Sigaretti</t>
   </si>
   <si>
     <t>American Spirit</t>
   </si>
   <si>
-    <t>HEETS TEAK</t>
-  </si>
-  <si>
     <t>Marlboro POCKET ROSSO</t>
   </si>
   <si>
     <t>CHESTER BLU 100</t>
   </si>
   <si>
-    <t>HEETS SIENNA CAPS</t>
-  </si>
-  <si>
     <t>Lucky Strike AMBER</t>
   </si>
   <si>
@@ -436,54 +409,24 @@
     <t>NEO BERYL</t>
   </si>
   <si>
-    <t>NEO CLASSIC TOBACCO</t>
-  </si>
-  <si>
-    <t>NEO RED</t>
-  </si>
-  <si>
     <t>NEO SCARLET</t>
   </si>
   <si>
     <t>NEO TERRACOTTA</t>
   </si>
   <si>
-    <t>NEO YELLOW</t>
-  </si>
-  <si>
-    <t>NEO TROPIC</t>
-  </si>
-  <si>
-    <t>HEETS RUSSET</t>
-  </si>
-  <si>
     <t>DIANA BLU 100</t>
   </si>
   <si>
     <t>DIANA ROSSA 100</t>
   </si>
   <si>
-    <t>NEO ARCTIC BLUE</t>
-  </si>
-  <si>
-    <t>NEO SCARLET GREEN</t>
-  </si>
-  <si>
     <t>SIGARETTI</t>
   </si>
   <si>
-    <t>HEETS SILVER</t>
-  </si>
-  <si>
-    <t>HEETS MAUVE WAVE</t>
-  </si>
-  <si>
     <t>Winston EXPAND</t>
   </si>
   <si>
-    <t>NEO MORNING</t>
-  </si>
-  <si>
     <t>RELX CLASSIC TOBACCO</t>
   </si>
   <si>
@@ -505,12 +448,6 @@
     <t>RELX UVA</t>
   </si>
   <si>
-    <t>RELX BACCHE ASIATICHE</t>
-  </si>
-  <si>
-    <t>RELX ANANAS</t>
-  </si>
-  <si>
     <t>C8502</t>
   </si>
   <si>
@@ -532,18 +469,6 @@
     <t>C8508</t>
   </si>
   <si>
-    <t>C8504</t>
-  </si>
-  <si>
-    <t>C8947</t>
-  </si>
-  <si>
-    <t>CHESTER ROSSO MORBIDO</t>
-  </si>
-  <si>
-    <t>CHESTER BLU MORBIDO</t>
-  </si>
-  <si>
     <t>L&amp;M RED</t>
   </si>
   <si>
@@ -565,12 +490,6 @@
     <t>TEREA SIENNA</t>
   </si>
   <si>
-    <t>TEREA TURQUOISE</t>
-  </si>
-  <si>
-    <t>TEREA BLUE</t>
-  </si>
-  <si>
     <t>TEREA BRONZE</t>
   </si>
   <si>
@@ -583,9 +502,6 @@
     <t>TEREA SILVER</t>
   </si>
   <si>
-    <t>TEREA MAUVE WAVE</t>
-  </si>
-  <si>
     <t>KIT FRESH RED</t>
   </si>
   <si>
@@ -608,9 +524,6 @@
   </si>
   <si>
     <t>CAMEL PURPLE</t>
-  </si>
-  <si>
-    <t>CHESTERFIELD TUNED</t>
   </si>
   <si>
     <t>LUCKY STRIKE ECLIPSE</t>
@@ -800,9 +713,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -840,7 +753,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -946,7 +859,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1088,7 +1001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1099,26 +1012,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z195"/>
+  <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.53125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="3.59765625" style="14" customWidth="1"/>
     <col min="23" max="16384" width="4.53125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1141,9 +1054,9 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>2957</v>
@@ -1173,9 +1086,9 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2956</v>
@@ -1205,9 +1118,9 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>293</v>
@@ -1237,9 +1150,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>2286</v>
@@ -1269,9 +1182,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>300</v>
@@ -1301,9 +1214,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>2288</v>
@@ -1333,9 +1246,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>2287</v>
@@ -1365,9 +1278,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>2883</v>
@@ -1397,9 +1310,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>96</v>
@@ -1429,9 +1342,9 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>201</v>
@@ -1461,12 +1374,12 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>2081</v>
+        <v>3113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1493,12 +1406,12 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1">
-        <v>2082</v>
+        <v>3114</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1525,12 +1438,12 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>3113</v>
+        <v>2257</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1557,12 +1470,12 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>3114</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1589,12 +1502,12 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>2257</v>
+        <v>632</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1621,12 +1534,12 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>20077</v>
+        <v>20225</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1653,12 +1566,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>478</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1685,12 +1598,12 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1">
-        <v>632</v>
+        <v>270</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1717,12 +1630,12 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1749,12 +1662,12 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1">
-        <v>20225</v>
+        <v>1313</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1781,12 +1694,12 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="B22" s="1">
-        <v>264</v>
+        <v>1303</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1813,12 +1726,12 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="1">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1845,12 +1758,12 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1">
-        <v>552</v>
+        <v>1784</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1877,12 +1790,12 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1">
-        <v>1313</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1909,12 +1822,12 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1">
-        <v>1303</v>
+        <v>1248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1943,10 +1856,10 @@
     </row>
     <row r="27" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1">
-        <v>338</v>
+        <v>20226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1978,7 +1891,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="1">
-        <v>1784</v>
+        <v>1733</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2007,10 +1920,10 @@
     </row>
     <row r="29" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2039,10 +1952,10 @@
     </row>
     <row r="30" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
-        <v>1248</v>
+        <v>1783</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2071,10 +1984,10 @@
     </row>
     <row r="31" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1">
-        <v>20226</v>
+        <v>2296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2103,10 +2016,10 @@
     </row>
     <row r="32" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>1733</v>
+        <v>396</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2135,10 +2048,10 @@
     </row>
     <row r="33" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2167,10 +2080,10 @@
     </row>
     <row r="34" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
-        <v>1783</v>
+        <v>2214</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2199,10 +2112,10 @@
     </row>
     <row r="35" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1">
-        <v>2296</v>
+        <v>3504</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2229,12 +2142,12 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>396</v>
+        <v>2658</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2263,10 +2176,10 @@
     </row>
     <row r="37" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>259</v>
+        <v>819</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2293,12 +2206,12 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>2214</v>
+        <v>395</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2325,12 +2238,12 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1">
-        <v>3504</v>
+        <v>618</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2359,10 +2272,10 @@
     </row>
     <row r="40" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
-        <v>2658</v>
+        <v>2373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2391,10 +2304,10 @@
     </row>
     <row r="41" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>819</v>
+        <v>3422</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2421,12 +2334,12 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>395</v>
+        <v>2616</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2453,12 +2366,12 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2487,10 +2400,10 @@
     </row>
     <row r="44" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1">
-        <v>2373</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2519,10 +2432,10 @@
     </row>
     <row r="45" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="B45" s="1">
-        <v>3422</v>
+        <v>3906</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2549,12 +2462,12 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1">
-        <v>2616</v>
+        <v>3907</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2581,12 +2494,12 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1">
-        <v>651</v>
+        <v>993</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2615,10 +2528,10 @@
     </row>
     <row r="48" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1">
-        <v>9</v>
+        <v>852</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2647,10 +2560,10 @@
     </row>
     <row r="49" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1">
-        <v>3906</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2679,10 +2592,10 @@
     </row>
     <row r="50" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1">
-        <v>3907</v>
+        <v>176</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2711,10 +2624,10 @@
     </row>
     <row r="51" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>993</v>
+        <v>857</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2743,10 +2656,10 @@
     </row>
     <row r="52" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1">
-        <v>852</v>
+        <v>3015</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2775,10 +2688,10 @@
     </row>
     <row r="53" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1">
-        <v>177</v>
+        <v>3016</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2807,10 +2720,10 @@
     </row>
     <row r="54" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>176</v>
+        <v>2981</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2837,12 +2750,12 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
-        <v>857</v>
+        <v>3118</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2869,12 +2782,12 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2901,12 +2814,12 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1">
-        <v>3016</v>
+        <v>3416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2933,12 +2846,12 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2965,12 +2878,12 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
-        <v>3118</v>
+        <v>256</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2997,12 +2910,12 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1">
-        <v>3014</v>
+        <v>949</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3029,12 +2942,12 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="B61" s="1">
-        <v>3416</v>
+        <v>874</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3063,10 +2976,10 @@
     </row>
     <row r="62" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1">
-        <v>2982</v>
+        <v>997</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3095,10 +3008,10 @@
     </row>
     <row r="63" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1">
-        <v>256</v>
+        <v>2423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3127,10 +3040,10 @@
     </row>
     <row r="64" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1">
-        <v>949</v>
+        <v>376</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3159,10 +3072,10 @@
     </row>
     <row r="65" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1">
-        <v>874</v>
+        <v>1634</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3191,10 +3104,10 @@
     </row>
     <row r="66" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1">
-        <v>997</v>
+        <v>3840</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3223,10 +3136,10 @@
     </row>
     <row r="67" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1">
-        <v>2423</v>
+        <v>1635</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3255,10 +3168,10 @@
     </row>
     <row r="68" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="B68" s="1">
-        <v>376</v>
+        <v>3839</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3287,10 +3200,10 @@
     </row>
     <row r="69" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="B69" s="1">
-        <v>1634</v>
+        <v>292</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3319,10 +3232,10 @@
     </row>
     <row r="70" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="B70" s="1">
-        <v>3840</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3351,10 +3264,10 @@
     </row>
     <row r="71" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="B71" s="1">
-        <v>1635</v>
+        <v>649</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3383,10 +3296,10 @@
     </row>
     <row r="72" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1">
-        <v>3839</v>
+        <v>231</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3415,10 +3328,10 @@
     </row>
     <row r="73" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1">
-        <v>292</v>
+        <v>2217</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3447,10 +3360,10 @@
     </row>
     <row r="74" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B74" s="1">
-        <v>81</v>
+        <v>2216</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3479,10 +3392,10 @@
     </row>
     <row r="75" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1">
-        <v>649</v>
+        <v>798</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3509,12 +3422,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3541,12 +3454,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B77" s="1">
-        <v>2217</v>
+        <v>3340</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3573,12 +3486,12 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="B78" s="1">
-        <v>2216</v>
+        <v>3341</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3605,12 +3518,12 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>798</v>
+        <v>2065</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3637,12 +3550,12 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1">
-        <v>291</v>
+        <v>2066</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3671,10 +3584,10 @@
     </row>
     <row r="81" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1">
-        <v>3340</v>
+        <v>3467</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3703,10 +3616,10 @@
     </row>
     <row r="82" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="B82" s="1">
-        <v>3341</v>
+        <v>3007</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3735,10 +3648,10 @@
     </row>
     <row r="83" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1">
-        <v>2065</v>
+        <v>3010</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3767,10 +3680,10 @@
     </row>
     <row r="84" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B84" s="1">
-        <v>2066</v>
+        <v>3011</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3799,10 +3712,10 @@
     </row>
     <row r="85" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B85" s="1">
-        <v>3467</v>
+        <v>2654</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3831,10 +3744,10 @@
     </row>
     <row r="86" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1">
-        <v>3007</v>
+        <v>2860</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3863,10 +3776,10 @@
     </row>
     <row r="87" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" s="1">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3895,10 +3808,10 @@
     </row>
     <row r="88" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B88" s="1">
-        <v>3011</v>
+        <v>2878</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3927,10 +3840,10 @@
     </row>
     <row r="89" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B89" s="1">
-        <v>2654</v>
+        <v>2880</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3959,10 +3872,10 @@
     </row>
     <row r="90" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B90" s="1">
-        <v>2860</v>
+        <v>2879</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3991,10 +3904,10 @@
     </row>
     <row r="91" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>3012</v>
+        <v>2652</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4023,10 +3936,10 @@
     </row>
     <row r="92" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B92" s="1">
-        <v>2878</v>
+        <v>2270</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4055,10 +3968,10 @@
     </row>
     <row r="93" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B93" s="1">
-        <v>2880</v>
+        <v>867</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4087,10 +4000,10 @@
     </row>
     <row r="94" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B94" s="1">
-        <v>2879</v>
+        <v>451</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4119,10 +4032,10 @@
     </row>
     <row r="95" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B95" s="1">
-        <v>2652</v>
+        <v>536</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4149,12 +4062,12 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1">
-        <v>2270</v>
+        <v>3947</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4181,12 +4094,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B97" s="1">
-        <v>867</v>
+        <v>560</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4213,12 +4126,12 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B98" s="1">
-        <v>451</v>
+        <v>951</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4247,10 +4160,10 @@
     </row>
     <row r="99" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="B99" s="1">
-        <v>536</v>
+        <v>952</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4279,10 +4192,10 @@
     </row>
     <row r="100" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="B100" s="1">
-        <v>3947</v>
+        <v>876</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4311,10 +4224,10 @@
     </row>
     <row r="101" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B101" s="1">
-        <v>560</v>
+        <v>66</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4343,10 +4256,10 @@
     </row>
     <row r="102" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>951</v>
+        <v>2771</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4375,10 +4288,10 @@
     </row>
     <row r="103" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
-        <v>952</v>
+        <v>3104</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4405,12 +4318,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="B104" s="1">
-        <v>876</v>
+        <v>233</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4437,12 +4350,12 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B105" s="1">
-        <v>66</v>
+        <v>1982</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4469,12 +4382,12 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B106" s="1">
-        <v>2771</v>
+        <v>630</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4503,10 +4416,10 @@
     </row>
     <row r="107" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B107" s="1">
-        <v>3104</v>
+        <v>1983</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4535,10 +4448,10 @@
     </row>
     <row r="108" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B108" s="1">
-        <v>233</v>
+        <v>2694</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4567,10 +4480,10 @@
     </row>
     <row r="109" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="B109" s="1">
-        <v>1982</v>
+        <v>2695</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4599,10 +4512,10 @@
     </row>
     <row r="110" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B110" s="1">
-        <v>630</v>
+        <v>2602</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4631,10 +4544,10 @@
     </row>
     <row r="111" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B111" s="1">
-        <v>1983</v>
+        <v>2815</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4663,10 +4576,10 @@
     </row>
     <row r="112" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B112" s="1">
-        <v>2694</v>
+        <v>3220</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4695,10 +4608,10 @@
     </row>
     <row r="113" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B113" s="1">
-        <v>2695</v>
+        <v>2603</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4727,10 +4640,10 @@
     </row>
     <row r="114" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B114" s="1">
-        <v>2602</v>
+        <v>20155</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4759,10 +4672,10 @@
     </row>
     <row r="115" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="B115" s="1">
-        <v>2815</v>
+        <v>20146</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4791,10 +4704,10 @@
     </row>
     <row r="116" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="B116" s="1">
-        <v>3220</v>
+        <v>20151</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4823,10 +4736,10 @@
     </row>
     <row r="117" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B117" s="1">
-        <v>2603</v>
+        <v>20148</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4853,12 +4766,12 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B118" s="1">
-        <v>3502</v>
+        <v>20153</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4885,12 +4798,12 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B119" s="1">
-        <v>3500</v>
+        <v>20150</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4917,12 +4830,12 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="B120" s="1">
-        <v>3731</v>
+        <v>20152</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4949,12 +4862,12 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1">
-        <v>3880</v>
+        <v>3867</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4981,12 +4894,12 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1">
-        <v>3501</v>
+        <v>3868</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5013,12 +4926,12 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B123" s="1">
-        <v>3653</v>
+        <v>3869</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5047,10 +4960,10 @@
     </row>
     <row r="124" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1">
-        <v>3707</v>
+        <v>3872</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5079,10 +4992,10 @@
     </row>
     <row r="125" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="1">
-        <v>3816</v>
+        <v>135</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5111,10 +5024,10 @@
     </row>
     <row r="126" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B126" s="1">
-        <v>3929</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5143,10 +5056,10 @@
     </row>
     <row r="127" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B127" s="1">
-        <v>3970</v>
+        <v>137</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5175,10 +5088,10 @@
     </row>
     <row r="128" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B128" s="1">
-        <v>20076</v>
+        <v>138</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5207,10 +5120,10 @@
     </row>
     <row r="129" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B129" s="1">
-        <v>20155</v>
+        <v>139</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5239,10 +5152,10 @@
     </row>
     <row r="130" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B130" s="1">
-        <v>20146</v>
+        <v>140</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5271,10 +5184,10 @@
     </row>
     <row r="131" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B131" s="1">
-        <v>20151</v>
+        <v>141</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5303,10 +5216,10 @@
     </row>
     <row r="132" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B132" s="1">
-        <v>20154</v>
+        <v>160</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5335,10 +5248,10 @@
     </row>
     <row r="133" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B133" s="1">
-        <v>20147</v>
+        <v>161</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5367,10 +5280,10 @@
     </row>
     <row r="134" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B134" s="1">
-        <v>20148</v>
+        <v>162</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5398,237 +5311,229 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B135" s="1">
-        <v>20153</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2"/>
-      <c r="V135" s="2"/>
+      <c r="A135" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="6"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B136" s="1">
-        <v>20150</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2"/>
-      <c r="V136" s="2"/>
+      <c r="A136" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="7">
+        <v>3688</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B137" s="1">
-        <v>20152</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2"/>
-      <c r="V137" s="2"/>
+      <c r="A137" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137" s="7">
+        <v>3528</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+      <c r="U137" s="8"/>
+      <c r="V137" s="8"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B138" s="1">
-        <v>20149</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
+      <c r="A138" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="7">
+        <v>3529</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="8"/>
+      <c r="V138" s="8"/>
     </row>
     <row r="139" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="1">
-        <v>3867</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
+      <c r="A139" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="7">
+        <v>3812</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="8"/>
+      <c r="R139" s="8"/>
+      <c r="S139" s="8"/>
+      <c r="T139" s="8"/>
+      <c r="U139" s="8"/>
+      <c r="V139" s="8"/>
     </row>
     <row r="140" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="1">
-        <v>3868</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
-      <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
-      <c r="V140" s="2"/>
+      <c r="A140" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="7">
+        <v>3648</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
+      <c r="U140" s="8"/>
+      <c r="V140" s="8"/>
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="1">
-        <v>3950</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2"/>
-      <c r="V141" s="2"/>
+      <c r="A141" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B141" s="7">
+        <v>3530</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" s="1">
-        <v>3871</v>
-      </c>
-      <c r="C142" s="2"/>
+      <c r="A142" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="7">
+        <v>3670</v>
+      </c>
+      <c r="C142" s="8"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -5638,48 +5543,48 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
-      <c r="V142" s="2"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="15"/>
+      <c r="U142" s="15"/>
+      <c r="V142" s="15"/>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="1">
-        <v>3923</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2"/>
-      <c r="V143" s="2"/>
+      <c r="A143" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
@@ -5687,10 +5592,10 @@
     </row>
     <row r="144" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B144" s="1">
-        <v>3949</v>
+        <v>3495</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5719,10 +5624,10 @@
     </row>
     <row r="145" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B145" s="1">
-        <v>3869</v>
+        <v>3494</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5751,10 +5656,10 @@
     </row>
     <row r="146" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B146" s="1">
-        <v>3872</v>
+        <v>3452</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5783,10 +5688,10 @@
     </row>
     <row r="147" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B147" s="1">
-        <v>3915</v>
+        <v>3520</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5815,10 +5720,10 @@
     </row>
     <row r="148" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B148" s="1">
-        <v>3870</v>
+        <v>3519</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5847,10 +5752,10 @@
     </row>
     <row r="149" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B149" s="1">
-        <v>20113</v>
+        <v>3498</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5879,10 +5784,10 @@
     </row>
     <row r="150" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>163</v>
+        <v>95</v>
+      </c>
+      <c r="B150" s="1">
+        <v>3497</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5911,10 +5816,10 @@
     </row>
     <row r="151" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>165</v>
+        <v>96</v>
+      </c>
+      <c r="B151" s="1">
+        <v>3499</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5943,10 +5848,10 @@
     </row>
     <row r="152" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>166</v>
+        <v>97</v>
+      </c>
+      <c r="B152" s="1">
+        <v>3487</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5975,10 +5880,10 @@
     </row>
     <row r="153" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>167</v>
+        <v>98</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3486</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6007,10 +5912,10 @@
     </row>
     <row r="154" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>164</v>
+        <v>99</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3456</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6039,10 +5944,10 @@
     </row>
     <row r="155" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>168</v>
+        <v>100</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3455</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6071,10 +5976,10 @@
     </row>
     <row r="156" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>169</v>
+        <v>124</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3454</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6103,10 +6008,10 @@
     </row>
     <row r="157" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>170</v>
+        <v>101</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3458</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6134,32 +6039,32 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
+      <c r="A158" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B158" s="10">
+        <v>3459</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+      <c r="U158" s="11"/>
+      <c r="V158" s="11"/>
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
@@ -6167,10 +6072,10 @@
     </row>
     <row r="159" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="B159" s="1">
+        <v>3658</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6199,10 +6104,10 @@
     </row>
     <row r="160" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>191</v>
+        <v>120</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1963</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6231,10 +6136,10 @@
     </row>
     <row r="161" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>193</v>
+        <v>104</v>
+      </c>
+      <c r="B161" s="1">
+        <v>3450</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6262,1076 +6167,220 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-      <c r="T162" s="6"/>
-      <c r="U162" s="6"/>
-      <c r="V162" s="6"/>
+      <c r="A162" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3448</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163" s="7">
-        <v>3688</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="8"/>
-      <c r="S163" s="8"/>
-      <c r="T163" s="8"/>
-      <c r="U163" s="8"/>
-      <c r="V163" s="8"/>
+      <c r="A163" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163" s="1">
+        <v>400</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164" s="7">
-        <v>3528</v>
-      </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="Q164" s="8"/>
-      <c r="R164" s="8"/>
-      <c r="S164" s="8"/>
-      <c r="T164" s="8"/>
-      <c r="U164" s="8"/>
-      <c r="V164" s="8"/>
+      <c r="A164" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1927</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B165" s="7">
-        <v>3529</v>
-      </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="8"/>
-      <c r="P165" s="8"/>
-      <c r="Q165" s="8"/>
-      <c r="R165" s="8"/>
-      <c r="S165" s="8"/>
-      <c r="T165" s="8"/>
-      <c r="U165" s="8"/>
-      <c r="V165" s="8"/>
+      <c r="A165" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3461</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B166" s="7">
-        <v>3812</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
-      <c r="P166" s="8"/>
-      <c r="Q166" s="8"/>
-      <c r="R166" s="8"/>
-      <c r="S166" s="8"/>
-      <c r="T166" s="8"/>
-      <c r="U166" s="8"/>
-      <c r="V166" s="8"/>
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3814</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B167" s="7">
-        <v>3648</v>
-      </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
-      <c r="O167" s="8"/>
-      <c r="P167" s="8"/>
-      <c r="Q167" s="8"/>
-      <c r="R167" s="8"/>
-      <c r="S167" s="8"/>
-      <c r="T167" s="8"/>
-      <c r="U167" s="8"/>
-      <c r="V167" s="8"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
+      <c r="A167" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168" s="7">
-        <v>3530</v>
-      </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
-      <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-      <c r="Q168" s="8"/>
-      <c r="R168" s="8"/>
-      <c r="S168" s="8"/>
-      <c r="T168" s="8"/>
-      <c r="U168" s="8"/>
-      <c r="V168" s="8"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-    </row>
-    <row r="169" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" s="7">
-        <v>3670</v>
-      </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="15"/>
-      <c r="N169" s="15"/>
-      <c r="O169" s="15"/>
-      <c r="P169" s="15"/>
-      <c r="Q169" s="15"/>
-      <c r="R169" s="15"/>
-      <c r="S169" s="15"/>
-      <c r="T169" s="15"/>
-      <c r="U169" s="15"/>
-      <c r="V169" s="15"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-    </row>
-    <row r="170" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
-      <c r="N170" s="9"/>
-      <c r="O170" s="9"/>
-      <c r="P170" s="9"/>
-      <c r="Q170" s="9"/>
-      <c r="R170" s="9"/>
-      <c r="S170" s="9"/>
-      <c r="T170" s="9"/>
-      <c r="U170" s="9"/>
-      <c r="V170" s="9"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-    </row>
-    <row r="171" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B171" s="1">
-        <v>3495</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-    </row>
-    <row r="172" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B172" s="1">
-        <v>3494</v>
-      </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-    </row>
-    <row r="173" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B173" s="1">
-        <v>3452</v>
-      </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-    </row>
-    <row r="174" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B174" s="1">
-        <v>3520</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="3"/>
-      <c r="X174" s="3"/>
-      <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
-    </row>
-    <row r="175" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B175" s="1">
-        <v>3519</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="3"/>
-      <c r="X175" s="3"/>
-      <c r="Y175" s="3"/>
-      <c r="Z175" s="3"/>
-    </row>
-    <row r="176" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B176" s="1">
-        <v>3498</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="3"/>
-      <c r="X176" s="3"/>
-      <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
-    </row>
-    <row r="177" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B177" s="1">
-        <v>3497</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="3"/>
-      <c r="X177" s="3"/>
-      <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
-    </row>
-    <row r="178" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B178" s="1">
-        <v>3499</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="3"/>
-      <c r="X178" s="3"/>
-      <c r="Y178" s="3"/>
-      <c r="Z178" s="3"/>
-    </row>
-    <row r="179" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B179" s="1">
-        <v>3487</v>
-      </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
-      <c r="V179" s="2"/>
-      <c r="W179" s="3"/>
-      <c r="X179" s="3"/>
-      <c r="Y179" s="3"/>
-      <c r="Z179" s="3"/>
-    </row>
-    <row r="180" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B180" s="1">
-        <v>3486</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-    </row>
-    <row r="181" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B181" s="1">
-        <v>3456</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
-      <c r="V181" s="2"/>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-    </row>
-    <row r="182" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B182" s="1">
-        <v>3455</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
-      <c r="V182" s="2"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-    </row>
-    <row r="183" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B183" s="1">
-        <v>3454</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-    </row>
-    <row r="184" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B184" s="1">
-        <v>3458</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="W184" s="3"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-    </row>
-    <row r="185" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A185" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B185" s="10">
-        <v>3459</v>
-      </c>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="J185" s="11"/>
-      <c r="K185" s="11"/>
-      <c r="L185" s="11"/>
-      <c r="M185" s="11"/>
-      <c r="N185" s="11"/>
-      <c r="O185" s="11"/>
-      <c r="P185" s="11"/>
-      <c r="Q185" s="11"/>
-      <c r="R185" s="11"/>
-      <c r="S185" s="11"/>
-      <c r="T185" s="11"/>
-      <c r="U185" s="11"/>
-      <c r="V185" s="11"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-    </row>
-    <row r="186" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B186" s="1">
-        <v>3658</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="3"/>
-      <c r="X186" s="3"/>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-    </row>
-    <row r="187" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A187" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B187" s="1">
-        <v>1963</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-    </row>
-    <row r="188" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B188" s="1">
-        <v>3450</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
-      <c r="V188" s="2"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-    </row>
-    <row r="189" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B189" s="1">
-        <v>3448</v>
-      </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2"/>
-      <c r="V189" s="2"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-    </row>
-    <row r="190" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B190" s="1">
-        <v>400</v>
-      </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-    </row>
-    <row r="191" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A191" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B191" s="1">
-        <v>1927</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-    </row>
-    <row r="192" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B192" s="1">
-        <v>3461</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
-      <c r="V192" s="2"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-    </row>
-    <row r="193" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="1">
-        <v>3814</v>
-      </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
+      <c r="A168" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B194" s="1">
-        <v>1616</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
-      <c r="V194" s="2"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B195" s="1">
+      <c r="B168" s="1">
         <v>1267</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
-      <c r="V195" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ORDINE TABACCO.xlsx
+++ b/ORDINE TABACCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt projects\ordine_tabacco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secernato\Documents\Qt Projects\ordine_tabacco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B4659-F7B0-446E-ADFC-8D94DBD9619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11A816-0C18-47FB-BBFA-AB4A37144639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
   <si>
     <t>821 BLU</t>
   </si>
@@ -343,9 +343,6 @@
     <t>DIANA ROSSA</t>
   </si>
   <si>
-    <t>NEO BERYL</t>
-  </si>
-  <si>
     <t>DIANA BLU 100</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
     <t>C8505</t>
   </si>
   <si>
-    <t>L&amp;M RED</t>
-  </si>
-  <si>
     <t>MS ROSSE MORBIDE</t>
   </si>
   <si>
@@ -451,14 +445,44 @@
     <t>TEREA CLOUD FUSE</t>
   </si>
   <si>
-    <t>TEREA BRIGHT FUSE</t>
+    <t>L&amp;M BLUE</t>
+  </si>
+  <si>
+    <t>BENSON WHITE 100S</t>
+  </si>
+  <si>
+    <t>PHILIP MORRIS RED</t>
+  </si>
+  <si>
+    <t>DELIA GOLD</t>
+  </si>
+  <si>
+    <t>DELIA SILVER</t>
+  </si>
+  <si>
+    <t>DELIA GREEN</t>
+  </si>
+  <si>
+    <t>VEO SCARLET</t>
+  </si>
+  <si>
+    <t>K0006</t>
+  </si>
+  <si>
+    <t>K0005</t>
+  </si>
+  <si>
+    <t>K0003</t>
+  </si>
+  <si>
+    <t>CHESTER SILVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -478,6 +502,11 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -913,21 +942,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z142"/>
+  <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="3.5703125" style="14" customWidth="1"/>
-    <col min="23" max="16384" width="4.5703125" style="14"/>
+    <col min="3" max="22" width="3.59765625" style="14" customWidth="1"/>
+    <col min="23" max="16384" width="4.59765625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
@@ -955,7 +984,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -987,7 +1016,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1048,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1080,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1112,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1144,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1176,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1208,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1240,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1272,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1304,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1336,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -1339,12 +1368,12 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1">
-        <v>478</v>
+        <v>2257</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1371,12 +1400,12 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>632</v>
+        <v>478</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1403,12 +1432,12 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>20225</v>
+        <v>632</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1435,12 +1464,12 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>264</v>
+        <v>20225</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1467,12 +1496,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>1313</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1499,12 +1528,12 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1">
-        <v>338</v>
+        <v>1303</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1531,12 +1560,12 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1">
-        <v>1784</v>
+        <v>338</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1563,12 +1592,12 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1">
-        <v>20648</v>
+        <v>1784</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1595,12 +1624,12 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1">
-        <v>134</v>
+        <v>20648</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1627,12 +1656,12 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1">
-        <v>1248</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1659,12 +1688,12 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1">
-        <v>20226</v>
+        <v>1248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1691,12 +1720,12 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1">
-        <v>91</v>
+        <v>20226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1723,12 +1752,12 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1">
-        <v>1783</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1755,12 +1784,12 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1">
-        <v>396</v>
+        <v>1783</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1787,12 +1816,12 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1819,12 +1848,12 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1">
-        <v>2214</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1851,12 +1880,12 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>3504</v>
+        <v>2214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1883,12 +1912,12 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1">
-        <v>2658</v>
+        <v>3504</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1915,12 +1944,12 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>819</v>
+        <v>2658</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1947,12 +1976,12 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>395</v>
+        <v>819</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1979,12 +2008,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>618</v>
+        <v>395</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2011,12 +2040,12 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>3422</v>
+        <v>618</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2043,12 +2072,12 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>2616</v>
+        <v>3422</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2075,12 +2104,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>651</v>
+        <v>2616</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2107,12 +2136,12 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
-        <v>9</v>
+        <v>651</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2139,12 +2168,12 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
-        <v>3906</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2171,12 +2200,12 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2203,12 +2232,12 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1">
-        <v>21037</v>
+        <v>3907</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2235,12 +2264,12 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="1">
-        <v>21036</v>
+        <v>21037</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2267,12 +2296,12 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B43" s="1">
-        <v>852</v>
+        <v>21036</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2299,12 +2328,12 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1">
-        <v>177</v>
+        <v>852</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2331,12 +2360,12 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2363,12 +2392,12 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>857</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2395,12 +2424,12 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
-        <v>3015</v>
+        <v>857</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2427,12 +2456,12 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2459,12 +2488,12 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
-        <v>2982</v>
+        <v>3014</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2491,12 +2520,12 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1">
-        <v>256</v>
+        <v>3416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2523,12 +2552,12 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
-        <v>949</v>
+        <v>2982</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2555,12 +2584,12 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>256</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2587,12 +2616,12 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1">
-        <v>2423</v>
+        <v>949</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2619,12 +2648,12 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1">
-        <v>1634</v>
+        <v>997</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2651,12 +2680,12 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1">
-        <v>3840</v>
+        <v>2423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2683,12 +2712,12 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2715,12 +2744,12 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B57" s="1">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2747,12 +2776,12 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B58" s="1">
-        <v>292</v>
+        <v>1635</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2779,12 +2808,12 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1">
-        <v>81</v>
+        <v>3839</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2811,12 +2840,12 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B60" s="1">
-        <v>649</v>
+        <v>292</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2843,12 +2872,12 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2875,12 +2904,12 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B62" s="1">
-        <v>2217</v>
+        <v>649</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2907,12 +2936,12 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1">
-        <v>2216</v>
+        <v>231</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2939,12 +2968,12 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" s="1">
-        <v>798</v>
+        <v>2217</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2971,12 +3000,12 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1">
-        <v>291</v>
+        <v>2216</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3003,12 +3032,12 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B66" s="1">
-        <v>3340</v>
+        <v>798</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3035,12 +3064,12 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1">
-        <v>3341</v>
+        <v>291</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3067,12 +3096,12 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B68" s="1">
-        <v>2065</v>
+        <v>3340</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3099,12 +3128,12 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B69" s="1">
-        <v>2066</v>
+        <v>3341</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3131,12 +3160,12 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
-        <v>3467</v>
+        <v>2065</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3163,12 +3192,12 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
-        <v>3007</v>
+        <v>2066</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3195,12 +3224,12 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1">
-        <v>3010</v>
+        <v>3467</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3227,12 +3256,12 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3259,12 +3288,12 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B74" s="1">
-        <v>2654</v>
+        <v>3010</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3291,12 +3320,12 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1">
-        <v>2860</v>
+        <v>3011</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3323,12 +3352,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1">
-        <v>3012</v>
+        <v>2654</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3355,12 +3384,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="1">
-        <v>2878</v>
+        <v>2860</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3387,12 +3416,12 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1">
-        <v>2880</v>
+        <v>3012</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3419,12 +3448,12 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B79" s="1">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3451,12 +3480,12 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B80" s="1">
-        <v>2652</v>
+        <v>2880</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3483,12 +3512,12 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B81" s="1">
-        <v>2270</v>
+        <v>2879</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3515,12 +3544,12 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1">
-        <v>867</v>
+        <v>2652</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3547,12 +3576,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1">
-        <v>451</v>
+        <v>2270</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3579,12 +3608,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1">
-        <v>536</v>
+        <v>867</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3611,12 +3640,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="B85" s="1">
-        <v>3947</v>
+        <v>451</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3643,12 +3672,12 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3675,12 +3704,12 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B87" s="1">
-        <v>66</v>
+        <v>3947</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3707,12 +3736,12 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B88" s="1">
-        <v>2771</v>
+        <v>560</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3739,12 +3768,12 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B89" s="1">
-        <v>3104</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3771,12 +3800,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>233</v>
+        <v>2771</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3803,12 +3832,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
-        <v>630</v>
+        <v>3104</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3835,12 +3864,12 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1">
-        <v>1983</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3867,12 +3896,12 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B93" s="1">
-        <v>2694</v>
+        <v>630</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3899,12 +3928,12 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1">
-        <v>2602</v>
+        <v>1983</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3931,12 +3960,12 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B95" s="1">
-        <v>3220</v>
+        <v>2603</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3963,12 +3992,12 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1">
-        <v>20155</v>
+        <v>2694</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3995,12 +4024,12 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1">
-        <v>20146</v>
+        <v>2602</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4027,12 +4056,12 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B98" s="1">
-        <v>20151</v>
+        <v>3220</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4059,12 +4088,12 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1">
-        <v>20148</v>
+        <v>20155</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4091,12 +4120,12 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1">
-        <v>20153</v>
+        <v>20146</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4123,12 +4152,12 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1">
-        <v>20150</v>
+        <v>20151</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4155,12 +4184,12 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1">
-        <v>20152</v>
+        <v>20148</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4187,12 +4216,12 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1">
-        <v>20154</v>
+        <v>20153</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4219,12 +4248,12 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B104" s="1">
-        <v>20785</v>
+        <v>20150</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4251,12 +4280,12 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1">
-        <v>20660</v>
+        <v>20152</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4283,12 +4312,12 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B106" s="1">
-        <v>3868</v>
+        <v>20154</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4315,12 +4344,12 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="1">
-        <v>20787</v>
+        <v>20785</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4347,12 +4376,12 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B108" s="1">
-        <v>20788</v>
+        <v>21108</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4379,12 +4408,12 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="B109" s="1">
+        <v>21380</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4411,12 +4440,12 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
+      </c>
+      <c r="B110" s="1">
+        <v>21232</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4443,12 +4472,12 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4475,196 +4504,204 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="6"/>
+    <row r="112" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" s="7">
-        <v>3688</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
+    <row r="113" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114" s="7">
-        <v>3528</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
+    <row r="114" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115" s="7">
-        <v>3529</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-    </row>
-    <row r="116" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="7">
-        <v>3812</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-    </row>
-    <row r="117" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="7">
-        <v>3648</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
+    <row r="115" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B118" s="7">
-        <v>3530</v>
+        <v>3688</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -4691,174 +4728,166 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B119" s="7">
-        <v>3670</v>
+        <v>3528</v>
       </c>
       <c r="C119" s="8"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
-      <c r="T119" s="15"/>
-      <c r="U119" s="15"/>
-      <c r="V119" s="15"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B121" s="1">
-        <v>3495</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="3"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-    </row>
-    <row r="122" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122" s="1">
-        <v>3494</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
+    <row r="120" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" s="7">
+        <v>3529</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="8"/>
+    </row>
+    <row r="121" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="7">
+        <v>3812</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+    </row>
+    <row r="122" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" s="7">
+        <v>3648</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123" s="1">
-        <v>3452</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
+    <row r="123" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="7">
+        <v>3530</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" s="1">
-        <v>3498</v>
-      </c>
-      <c r="C124" s="2"/>
+    <row r="124" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="7">
+        <v>3670</v>
+      </c>
+      <c r="C124" s="8"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -4868,59 +4897,59 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="15"/>
+      <c r="U124" s="15"/>
+      <c r="V124" s="15"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="1">
-        <v>3497</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
+    <row r="125" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B126" s="1">
-        <v>3499</v>
+        <v>3495</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -4947,12 +4976,12 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B127" s="1">
-        <v>3487</v>
+        <v>3494</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -4979,12 +5008,12 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B128" s="1">
-        <v>3486</v>
+        <v>3452</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5011,12 +5040,12 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B129" s="1">
-        <v>3456</v>
+        <v>3498</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5043,12 +5072,12 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B130" s="1">
-        <v>3455</v>
+        <v>3497</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5075,12 +5104,12 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B131" s="1">
-        <v>3454</v>
+        <v>3499</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5107,12 +5136,12 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B132" s="1">
-        <v>3458</v>
+        <v>3487</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5139,44 +5168,44 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B133" s="10">
-        <v>3459</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
-      <c r="P133" s="11"/>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
-      <c r="T133" s="11"/>
-      <c r="U133" s="11"/>
-      <c r="V133" s="11"/>
+    <row r="133" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3486</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B134" s="1">
-        <v>3658</v>
+        <v>3456</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5203,12 +5232,12 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B135" s="1">
-        <v>1963</v>
+        <v>3455</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5235,12 +5264,12 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B136" s="1">
-        <v>3450</v>
+        <v>3454</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5267,12 +5296,12 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B137" s="1">
-        <v>3448</v>
+        <v>3458</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5299,44 +5328,44 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="12" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B138" s="1">
-        <v>400</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
+    <row r="138" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A138" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="10">
+        <v>3459</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="11"/>
+      <c r="U138" s="11"/>
+      <c r="V138" s="11"/>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B139" s="1">
-        <v>1927</v>
+        <v>3658</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5363,12 +5392,12 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B140" s="1">
-        <v>3461</v>
+        <v>1963</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5395,12 +5424,12 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B141" s="1">
-        <v>3814</v>
+        <v>3450</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5427,12 +5456,12 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B142" s="1">
-        <v>1616</v>
+        <v>3448</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5454,8 +5483,169 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+    </row>
+    <row r="143" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="1">
+        <v>400</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
+    </row>
+    <row r="144" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1927</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3461</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3814</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+      <c r="Z146" s="3"/>
+    </row>
+    <row r="147" spans="1:26" ht="11.65" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
